--- a/gene expression/lipid_PD_genes_updated.xlsx
+++ b/gene expression/lipid_PD_genes_updated.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O532"/>
+  <dimension ref="A1:P532"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -509,6 +509,11 @@
           <t>Both Genes</t>
         </is>
       </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>PD Genes (Not in Lipid Genes)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr"/>
@@ -568,6 +573,11 @@
         </is>
       </c>
       <c r="O2" t="inlineStr"/>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>FYN,SYT17</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr"/>
@@ -627,6 +637,11 @@
         </is>
       </c>
       <c r="O3" t="inlineStr"/>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>SCARB2,RNF141,MEX3C</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr"/>
@@ -686,6 +701,11 @@
         </is>
       </c>
       <c r="O4" t="inlineStr"/>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>MED12L,FYN,CHRNB1</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr"/>
@@ -749,6 +769,11 @@
           <t>CRLS1</t>
         </is>
       </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>MIPOL1,MEX3C</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr"/>
@@ -808,6 +833,11 @@
         </is>
       </c>
       <c r="O6" t="inlineStr"/>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>DNAJC6,VPS35,SCARB2,PAM,CAMK2D</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr"/>
@@ -867,6 +897,11 @@
         </is>
       </c>
       <c r="O7" t="inlineStr"/>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>PRKRA,MCCC1,SCARB2</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr"/>
@@ -926,6 +961,11 @@
         </is>
       </c>
       <c r="O8" t="inlineStr"/>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>LINC00693,SYT17,CHRNB1</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr"/>
@@ -985,6 +1025,11 @@
         </is>
       </c>
       <c r="O9" t="inlineStr"/>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>MCCC1,FYN,BIN3,CHRNB1</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr"/>
@@ -1044,6 +1089,11 @@
         </is>
       </c>
       <c r="O10" t="inlineStr"/>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>SLC30A10,CHRNB1</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr"/>
@@ -1103,6 +1153,11 @@
         </is>
       </c>
       <c r="O11" t="inlineStr"/>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>FYN,CAB39L</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr"/>
@@ -1162,6 +1217,11 @@
         </is>
       </c>
       <c r="O12" t="inlineStr"/>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>IP6K2,GAK</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr"/>
@@ -1221,6 +1281,11 @@
         </is>
       </c>
       <c r="O13" t="inlineStr"/>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>FBXO7,FYN</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr"/>
@@ -1284,6 +1349,11 @@
           <t>SYNJ1</t>
         </is>
       </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>ATP13A2,C19orf12,GCH1,TH,SLC6A3,SATB1,SIPA1L2,CAMK2D,SNCA,FAM47E-STBD1,SYT17,WNT3</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr"/>
@@ -1347,6 +1417,11 @@
           <t>SYNJ1</t>
         </is>
       </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>C19orf12,DCTN1,DNAJC6,PANK2,PRKRA,VPS13A,VPS35,VAMP4,SATB1,KPNA1,SPTSSB,PAM,CAMK2D,SNCA,RIMS1,FGF20,FAM49B,SH3GL2,INPP5F,MBNL2,CAB39L,RIT2</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr"/>
@@ -1406,6 +1481,11 @@
         </is>
       </c>
       <c r="O16" t="inlineStr"/>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>PANK2,OPA3,WDR45,CTSB,BIN3,GBF1,SYT17</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr"/>
@@ -1465,6 +1545,11 @@
         </is>
       </c>
       <c r="O17" t="inlineStr"/>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>DNAJC6,PRKRA,VPS35,MCCC1,CLCN3,SNCA,FAM49B,DLG2</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr"/>
@@ -1528,6 +1613,11 @@
           <t>CHD9</t>
         </is>
       </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>LYST,VPS13A,DLG2,MBNL2,VPS13C,MEX3C</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr"/>
@@ -1583,6 +1673,7 @@
       </c>
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr"/>
+      <c r="P19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr"/>
@@ -1638,6 +1729,7 @@
       </c>
       <c r="N20" t="inlineStr"/>
       <c r="O20" t="inlineStr"/>
+      <c r="P20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr"/>
@@ -1693,6 +1785,7 @@
       </c>
       <c r="N21" t="inlineStr"/>
       <c r="O21" t="inlineStr"/>
+      <c r="P21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr"/>
@@ -1748,6 +1841,7 @@
       </c>
       <c r="N22" t="inlineStr"/>
       <c r="O22" t="inlineStr"/>
+      <c r="P22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr"/>
@@ -1803,6 +1897,7 @@
       </c>
       <c r="N23" t="inlineStr"/>
       <c r="O23" t="inlineStr"/>
+      <c r="P23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr"/>
@@ -1858,6 +1953,7 @@
       </c>
       <c r="N24" t="inlineStr"/>
       <c r="O24" t="inlineStr"/>
+      <c r="P24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr"/>
@@ -1913,6 +2009,7 @@
       </c>
       <c r="N25" t="inlineStr"/>
       <c r="O25" t="inlineStr"/>
+      <c r="P25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr"/>
@@ -1968,6 +2065,7 @@
       </c>
       <c r="N26" t="inlineStr"/>
       <c r="O26" t="inlineStr"/>
+      <c r="P26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr"/>
@@ -2023,6 +2121,7 @@
       </c>
       <c r="N27" t="inlineStr"/>
       <c r="O27" t="inlineStr"/>
+      <c r="P27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr"/>
@@ -2078,6 +2177,7 @@
       </c>
       <c r="N28" t="inlineStr"/>
       <c r="O28" t="inlineStr"/>
+      <c r="P28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr"/>
@@ -2133,6 +2233,7 @@
       </c>
       <c r="N29" t="inlineStr"/>
       <c r="O29" t="inlineStr"/>
+      <c r="P29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr"/>
@@ -2192,6 +2293,11 @@
         </is>
       </c>
       <c r="O30" t="inlineStr"/>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>ATP13A2,ATP1A3,DCTN1,OPA3,GBAP1,FAM171A2,RIT2</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr"/>
@@ -2251,6 +2357,11 @@
         </is>
       </c>
       <c r="O31" t="inlineStr"/>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>ATP13A2,ATP1A3,OPA3,GBAP1,KCNIP3,SPTSSB,TMEM175,FAM47E-STBD1,SH3GL2,FAM171A2,WNT3</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr"/>
@@ -2310,6 +2421,11 @@
         </is>
       </c>
       <c r="O32" t="inlineStr"/>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>ATP13A2,ATP1A3,OPA3,TUBB4A,GBAP1,KCNIP3,FAM47E-STBD1,FAM47E,GBF1,FBRSL1,SYT17,UBTF,FAM171A2,WNT3</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr"/>
@@ -2369,6 +2485,11 @@
         </is>
       </c>
       <c r="O33" t="inlineStr"/>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>ATP13A2,ATP1A3,OPA3,TUBB4A,TMEM163,KCNIP3,KCNS3,FAM47E-STBD1,DLG2,FBRSL1,SYT17,FAM171A2,WNT3</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr"/>
@@ -2428,6 +2549,11 @@
         </is>
       </c>
       <c r="O34" t="inlineStr"/>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>ATP13A2,ATP1A3,SH3GL2</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr"/>
@@ -2487,6 +2613,11 @@
         </is>
       </c>
       <c r="O35" t="inlineStr"/>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>ATP13A2,ATP1A3,TH,TUBB4A,FAM171A2</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr"/>
@@ -2546,6 +2677,11 @@
         </is>
       </c>
       <c r="O36" t="inlineStr"/>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>ATP13A2,FAM171A2</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr"/>
@@ -2605,6 +2741,11 @@
         </is>
       </c>
       <c r="O37" t="inlineStr"/>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>ATP13A2,KCNIP3,FBRSL1,FAM171A2</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr"/>
@@ -2664,6 +2805,11 @@
         </is>
       </c>
       <c r="O38" t="inlineStr"/>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>ATP13A2</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr"/>
@@ -2723,6 +2869,11 @@
         </is>
       </c>
       <c r="O39" t="inlineStr"/>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>ATP13A2,OPA3</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr"/>
@@ -2782,6 +2933,11 @@
         </is>
       </c>
       <c r="O40" t="inlineStr"/>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>ATP13A2,TH,IP6K2,FAM171A2</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr"/>
@@ -2841,6 +2997,11 @@
         </is>
       </c>
       <c r="O41" t="inlineStr"/>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>ATP13A2,TUBB4A,FAM171A2</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr"/>
@@ -2900,6 +3061,11 @@
         </is>
       </c>
       <c r="O42" t="inlineStr"/>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>ATP1A3</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr"/>
@@ -2959,6 +3125,11 @@
         </is>
       </c>
       <c r="O43" t="inlineStr"/>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>ATP1A3,C19orf12,SATB1,SPTSSB,RIMS1,SH3GL2</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr"/>
@@ -3018,6 +3189,11 @@
         </is>
       </c>
       <c r="O44" t="inlineStr"/>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>ATP1A3,CAMK2D,WNT3</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr"/>
@@ -3077,6 +3253,11 @@
         </is>
       </c>
       <c r="O45" t="inlineStr"/>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>ATP1A3,DCTN1</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr"/>
@@ -3136,6 +3317,11 @@
         </is>
       </c>
       <c r="O46" t="inlineStr"/>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>ATP1A3,PAM,RIMS1,SH3GL2,FAM171A2,RIT2</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr"/>
@@ -3195,6 +3381,11 @@
         </is>
       </c>
       <c r="O47" t="inlineStr"/>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>ATP1A3,SNCA,UBTF</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr"/>
@@ -3254,6 +3445,11 @@
         </is>
       </c>
       <c r="O48" t="inlineStr"/>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>ATP1A3,TUBB4A</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr"/>
@@ -3313,6 +3509,11 @@
         </is>
       </c>
       <c r="O49" t="inlineStr"/>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>BAG3</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr"/>
@@ -3372,6 +3573,11 @@
         </is>
       </c>
       <c r="O50" t="inlineStr"/>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>BAG3</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr"/>
@@ -3431,6 +3637,11 @@
         </is>
       </c>
       <c r="O51" t="inlineStr"/>
+      <c r="P51" t="inlineStr">
+        <is>
+          <t>BAG3</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr"/>
@@ -3490,6 +3701,11 @@
         </is>
       </c>
       <c r="O52" t="inlineStr"/>
+      <c r="P52" t="inlineStr">
+        <is>
+          <t>BIN3</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr"/>
@@ -3549,6 +3765,11 @@
         </is>
       </c>
       <c r="O53" t="inlineStr"/>
+      <c r="P53" t="inlineStr">
+        <is>
+          <t>BIN3,IGSF9B</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr"/>
@@ -3608,6 +3829,11 @@
         </is>
       </c>
       <c r="O54" t="inlineStr"/>
+      <c r="P54" t="inlineStr">
+        <is>
+          <t>BIN3</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr"/>
@@ -3667,6 +3893,11 @@
         </is>
       </c>
       <c r="O55" t="inlineStr"/>
+      <c r="P55" t="inlineStr">
+        <is>
+          <t>BST1</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr"/>
@@ -3726,6 +3957,11 @@
         </is>
       </c>
       <c r="O56" t="inlineStr"/>
+      <c r="P56" t="inlineStr">
+        <is>
+          <t>BST1</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr"/>
@@ -3785,6 +4021,11 @@
         </is>
       </c>
       <c r="O57" t="inlineStr"/>
+      <c r="P57" t="inlineStr">
+        <is>
+          <t>BST1,GPNMB</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr"/>
@@ -3844,6 +4085,11 @@
         </is>
       </c>
       <c r="O58" t="inlineStr"/>
+      <c r="P58" t="inlineStr">
+        <is>
+          <t>BST1</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr"/>
@@ -3907,6 +4153,11 @@
           <t>GALC,CHD9</t>
         </is>
       </c>
+      <c r="P59" t="inlineStr">
+        <is>
+          <t>BST1,LCORL,SCAF11,MEX3C</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr"/>
@@ -3970,6 +4221,11 @@
           <t>CRLS1</t>
         </is>
       </c>
+      <c r="P60" t="inlineStr">
+        <is>
+          <t>C19orf12</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr"/>
@@ -4033,6 +4289,11 @@
           <t>SYNJ1</t>
         </is>
       </c>
+      <c r="P61" t="inlineStr">
+        <is>
+          <t>C19orf12,DCTN1,DNAJC6,PANK2,PRKRA,VPS13A,VPS35,VAMP4,SATB1,STK39,TMEM163,KCNS3,KPNA1,SPTSSB,PAM,CAMK2D,SNCA,RIMS1,FAM49B,SH3GL2,INPP5F,DLG2,ASXL3,RIT2</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr"/>
@@ -4096,6 +4357,11 @@
           <t>SYNJ1</t>
         </is>
       </c>
+      <c r="P62" t="inlineStr">
+        <is>
+          <t>C19orf12,DNAJC6,SATB1,KCNS3,SIPA1L2,SNCA,FAM49B,INPP5F,CAB39L,ASXL3</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr"/>
@@ -4155,6 +4421,11 @@
         </is>
       </c>
       <c r="O63" t="inlineStr"/>
+      <c r="P63" t="inlineStr">
+        <is>
+          <t>C19orf12,GCH1,PANK2,KPNA1,PSMF1</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr"/>
@@ -4218,6 +4489,11 @@
           <t>SYNJ1</t>
         </is>
       </c>
+      <c r="P64" t="inlineStr">
+        <is>
+          <t>C19orf12,GCH1,VPS13A,SPTSSB,PAM,SNCA,RIMS1,FAM49B,SH3GL2,INPP5F,DLG2,WNT3,RIT2</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr"/>
@@ -4281,6 +4557,11 @@
           <t>GALC</t>
         </is>
       </c>
+      <c r="P65" t="inlineStr">
+        <is>
+          <t>C19orf12,OPA3,FGF20</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr"/>
@@ -4340,6 +4621,11 @@
         </is>
       </c>
       <c r="O66" t="inlineStr"/>
+      <c r="P66" t="inlineStr">
+        <is>
+          <t>C19orf12,PAM,SNCA,FAM49B</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr"/>
@@ -4399,6 +4685,11 @@
         </is>
       </c>
       <c r="O67" t="inlineStr"/>
+      <c r="P67" t="inlineStr">
+        <is>
+          <t>C19orf12,PANK2,SPTSSB,SNCA,RIMS1,FAM49B,INPP5F</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr"/>
@@ -4462,6 +4753,11 @@
           <t>SYNJ1</t>
         </is>
       </c>
+      <c r="P68" t="inlineStr">
+        <is>
+          <t>C19orf12,PANK2,SNCA,RIMS1,INPP5F,DLG2</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr"/>
@@ -4525,6 +4821,11 @@
           <t>SYNJ1</t>
         </is>
       </c>
+      <c r="P69" t="inlineStr">
+        <is>
+          <t>C19orf12,PANK2,VPS13A,TMEM163,CAMK2D,RIMS1,INPP5F</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr"/>
@@ -4584,6 +4885,11 @@
         </is>
       </c>
       <c r="O70" t="inlineStr"/>
+      <c r="P70" t="inlineStr">
+        <is>
+          <t>C5orf24,SCAF11</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr"/>
@@ -4643,6 +4949,11 @@
         </is>
       </c>
       <c r="O71" t="inlineStr"/>
+      <c r="P71" t="inlineStr">
+        <is>
+          <t>CAB39L,PSMF1</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr"/>
@@ -4702,6 +5013,11 @@
         </is>
       </c>
       <c r="O72" t="inlineStr"/>
+      <c r="P72" t="inlineStr">
+        <is>
+          <t>CAMK2D,FAM47E-STBD1</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr"/>
@@ -4761,6 +5077,11 @@
         </is>
       </c>
       <c r="O73" t="inlineStr"/>
+      <c r="P73" t="inlineStr">
+        <is>
+          <t>CAMK2D,MEX3C</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr"/>
@@ -4820,6 +5141,11 @@
         </is>
       </c>
       <c r="O74" t="inlineStr"/>
+      <c r="P74" t="inlineStr">
+        <is>
+          <t>CAMK2D,RIMS1,SH3GL2</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr"/>
@@ -4875,6 +5201,7 @@
       </c>
       <c r="N75" t="inlineStr"/>
       <c r="O75" t="inlineStr"/>
+      <c r="P75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr"/>
@@ -4930,6 +5257,7 @@
       </c>
       <c r="N76" t="inlineStr"/>
       <c r="O76" t="inlineStr"/>
+      <c r="P76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr"/>
@@ -4985,6 +5313,7 @@
       </c>
       <c r="N77" t="inlineStr"/>
       <c r="O77" t="inlineStr"/>
+      <c r="P77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr"/>
@@ -5040,6 +5369,7 @@
       </c>
       <c r="N78" t="inlineStr"/>
       <c r="O78" t="inlineStr"/>
+      <c r="P78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr"/>
@@ -5103,6 +5433,7 @@
           <t>CHD9</t>
         </is>
       </c>
+      <c r="P79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr"/>
@@ -5166,6 +5497,7 @@
           <t>CHD9</t>
         </is>
       </c>
+      <c r="P80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr"/>
@@ -5221,6 +5553,7 @@
       </c>
       <c r="N81" t="inlineStr"/>
       <c r="O81" t="inlineStr"/>
+      <c r="P81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr"/>
@@ -5276,6 +5609,7 @@
       </c>
       <c r="N82" t="inlineStr"/>
       <c r="O82" t="inlineStr"/>
+      <c r="P82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr"/>
@@ -5335,6 +5669,11 @@
         </is>
       </c>
       <c r="O83" t="inlineStr"/>
+      <c r="P83" t="inlineStr">
+        <is>
+          <t>CHRNB1</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr"/>
@@ -5394,6 +5733,11 @@
         </is>
       </c>
       <c r="O84" t="inlineStr"/>
+      <c r="P84" t="inlineStr">
+        <is>
+          <t>CLCN3</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr"/>
@@ -5453,6 +5797,11 @@
         </is>
       </c>
       <c r="O85" t="inlineStr"/>
+      <c r="P85" t="inlineStr">
+        <is>
+          <t>CLCN3,CAMK2D,FYN,MIPOL1,CAB39L,SCAF11,MEX3C</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr"/>
@@ -5516,6 +5865,11 @@
           <t>CRLS1</t>
         </is>
       </c>
+      <c r="P86" t="inlineStr">
+        <is>
+          <t>CLCN3</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr"/>
@@ -5575,6 +5929,11 @@
         </is>
       </c>
       <c r="O87" t="inlineStr"/>
+      <c r="P87" t="inlineStr">
+        <is>
+          <t>CLCN3,RIMS1</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr"/>
@@ -5630,6 +5989,7 @@
       </c>
       <c r="N88" t="inlineStr"/>
       <c r="O88" t="inlineStr"/>
+      <c r="P88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr"/>
@@ -5685,6 +6045,7 @@
       </c>
       <c r="N89" t="inlineStr"/>
       <c r="O89" t="inlineStr"/>
+      <c r="P89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr"/>
@@ -5740,6 +6101,7 @@
       </c>
       <c r="N90" t="inlineStr"/>
       <c r="O90" t="inlineStr"/>
+      <c r="P90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr"/>
@@ -5795,6 +6157,7 @@
       </c>
       <c r="N91" t="inlineStr"/>
       <c r="O91" t="inlineStr"/>
+      <c r="P91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr"/>
@@ -5858,6 +6221,7 @@
           <t>CRLS1</t>
         </is>
       </c>
+      <c r="P92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr"/>
@@ -5917,6 +6281,11 @@
         </is>
       </c>
       <c r="O93" t="inlineStr"/>
+      <c r="P93" t="inlineStr">
+        <is>
+          <t>CSF1R,FCGR2A,GPNMB,FGF20,NOD2,RAB32</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr"/>
@@ -5976,6 +6345,11 @@
         </is>
       </c>
       <c r="O94" t="inlineStr"/>
+      <c r="P94" t="inlineStr">
+        <is>
+          <t>CSF1R,FCGR2A,GPNMB,NOD2,RAB32</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr"/>
@@ -6035,6 +6409,11 @@
         </is>
       </c>
       <c r="O95" t="inlineStr"/>
+      <c r="P95" t="inlineStr">
+        <is>
+          <t>CSF1R,FCGR2A,NOD2</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr"/>
@@ -6094,6 +6473,11 @@
         </is>
       </c>
       <c r="O96" t="inlineStr"/>
+      <c r="P96" t="inlineStr">
+        <is>
+          <t>CSF1R,FCGR2A,RAB32</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr"/>
@@ -6153,6 +6537,11 @@
         </is>
       </c>
       <c r="O97" t="inlineStr"/>
+      <c r="P97" t="inlineStr">
+        <is>
+          <t>CSF1R,FCGR2A</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr"/>
@@ -6212,6 +6601,11 @@
         </is>
       </c>
       <c r="O98" t="inlineStr"/>
+      <c r="P98" t="inlineStr">
+        <is>
+          <t>CSF1R,FGF20</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr"/>
@@ -6271,6 +6665,11 @@
         </is>
       </c>
       <c r="O99" t="inlineStr"/>
+      <c r="P99" t="inlineStr">
+        <is>
+          <t>CSF1R,FGF20</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr"/>
@@ -6330,6 +6729,11 @@
         </is>
       </c>
       <c r="O100" t="inlineStr"/>
+      <c r="P100" t="inlineStr">
+        <is>
+          <t>CSF1R,GCH1,GRN,FCGR2A,RAB32</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr"/>
@@ -6389,6 +6793,11 @@
         </is>
       </c>
       <c r="O101" t="inlineStr"/>
+      <c r="P101" t="inlineStr">
+        <is>
+          <t>CSF1R,GPNMB,FGF20,RAB32</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr"/>
@@ -6448,6 +6857,11 @@
         </is>
       </c>
       <c r="O102" t="inlineStr"/>
+      <c r="P102" t="inlineStr">
+        <is>
+          <t>CSF1R,MED12L,FGF20</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr"/>
@@ -6507,6 +6921,11 @@
         </is>
       </c>
       <c r="O103" t="inlineStr"/>
+      <c r="P103" t="inlineStr">
+        <is>
+          <t>CSF1R</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr"/>
@@ -6570,6 +6989,11 @@
           <t>ELOVL7</t>
         </is>
       </c>
+      <c r="P104" t="inlineStr">
+        <is>
+          <t>CSF1R,SPR,FCGR2A,BST1,HLA-DRB5,RAB32</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr"/>
@@ -6629,6 +7053,11 @@
         </is>
       </c>
       <c r="O105" t="inlineStr"/>
+      <c r="P105" t="inlineStr">
+        <is>
+          <t>CSF1R,SPR,FCGR2A,FGF20,RAB32</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr"/>
@@ -6684,6 +7113,7 @@
       </c>
       <c r="N106" t="inlineStr"/>
       <c r="O106" t="inlineStr"/>
+      <c r="P106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr"/>
@@ -6743,6 +7173,11 @@
         </is>
       </c>
       <c r="O107" t="inlineStr"/>
+      <c r="P107" t="inlineStr">
+        <is>
+          <t>CTSB,BIN3,PSMF1</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr"/>
@@ -6802,6 +7237,11 @@
         </is>
       </c>
       <c r="O108" t="inlineStr"/>
+      <c r="P108" t="inlineStr">
+        <is>
+          <t>CTSB</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr"/>
@@ -6861,6 +7301,11 @@
         </is>
       </c>
       <c r="O109" t="inlineStr"/>
+      <c r="P109" t="inlineStr">
+        <is>
+          <t>CTSB,PSMF1</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr"/>
@@ -6920,6 +7365,11 @@
         </is>
       </c>
       <c r="O110" t="inlineStr"/>
+      <c r="P110" t="inlineStr">
+        <is>
+          <t>CTSB,UBTF,PSMF1</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr"/>
@@ -6975,6 +7425,7 @@
       </c>
       <c r="N111" t="inlineStr"/>
       <c r="O111" t="inlineStr"/>
+      <c r="P111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr"/>
@@ -7030,6 +7481,7 @@
       </c>
       <c r="N112" t="inlineStr"/>
       <c r="O112" t="inlineStr"/>
+      <c r="P112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr"/>
@@ -7085,6 +7537,7 @@
       </c>
       <c r="N113" t="inlineStr"/>
       <c r="O113" t="inlineStr"/>
+      <c r="P113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr"/>
@@ -7140,6 +7593,7 @@
       </c>
       <c r="N114" t="inlineStr"/>
       <c r="O114" t="inlineStr"/>
+      <c r="P114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr"/>
@@ -7199,6 +7653,11 @@
         </is>
       </c>
       <c r="O115" t="inlineStr"/>
+      <c r="P115" t="inlineStr">
+        <is>
+          <t>DCTN1,DNAJC6,TH,TUBB4A,IP6K2,FAM49B,UBTF,ASXL3</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr"/>
@@ -7258,6 +7717,11 @@
         </is>
       </c>
       <c r="O116" t="inlineStr"/>
+      <c r="P116" t="inlineStr">
+        <is>
+          <t>DCTN1,DNAJC6,VPS35,VAMP4,MBNL2</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr"/>
@@ -7317,6 +7781,11 @@
         </is>
       </c>
       <c r="O117" t="inlineStr"/>
+      <c r="P117" t="inlineStr">
+        <is>
+          <t>DCTN1,GCH1,OPA3,CTSB,UBAP2,GBF1</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr"/>
@@ -7376,6 +7845,11 @@
         </is>
       </c>
       <c r="O118" t="inlineStr"/>
+      <c r="P118" t="inlineStr">
+        <is>
+          <t>DCTN1</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr"/>
@@ -7435,6 +7909,11 @@
         </is>
       </c>
       <c r="O119" t="inlineStr"/>
+      <c r="P119" t="inlineStr">
+        <is>
+          <t>DCTN1,NUCKS1</t>
+        </is>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr"/>
@@ -7494,6 +7973,11 @@
         </is>
       </c>
       <c r="O120" t="inlineStr"/>
+      <c r="P120" t="inlineStr">
+        <is>
+          <t>DCTN1,NUCKS1,SCAF11,DYRK1A</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr"/>
@@ -7553,6 +8037,11 @@
         </is>
       </c>
       <c r="O121" t="inlineStr"/>
+      <c r="P121" t="inlineStr">
+        <is>
+          <t>DCTN1</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr"/>
@@ -7612,6 +8101,11 @@
         </is>
       </c>
       <c r="O122" t="inlineStr"/>
+      <c r="P122" t="inlineStr">
+        <is>
+          <t>DCTN1,OPA3,IP6K2,CTSB,BIN3,UBAP2,GBF1,UBTF</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr"/>
@@ -7675,6 +8169,11 @@
           <t>PLA2G6</t>
         </is>
       </c>
+      <c r="P123" t="inlineStr">
+        <is>
+          <t>DCTN1,GRN,TUBB4A,GS1-124K5.11,UBAP2,UBTF,SPPL2B,PSMF1</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr"/>
@@ -7730,6 +8229,7 @@
       </c>
       <c r="N124" t="inlineStr"/>
       <c r="O124" t="inlineStr"/>
+      <c r="P124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr"/>
@@ -7785,6 +8285,7 @@
       </c>
       <c r="N125" t="inlineStr"/>
       <c r="O125" t="inlineStr"/>
+      <c r="P125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr"/>
@@ -7844,6 +8345,11 @@
         </is>
       </c>
       <c r="O126" t="inlineStr"/>
+      <c r="P126" t="inlineStr">
+        <is>
+          <t>DLG2,RIT2</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr"/>
@@ -7903,6 +8409,11 @@
         </is>
       </c>
       <c r="O127" t="inlineStr"/>
+      <c r="P127" t="inlineStr">
+        <is>
+          <t>DNAJC6</t>
+        </is>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr"/>
@@ -7966,6 +8477,11 @@
           <t>CHD9</t>
         </is>
       </c>
+      <c r="P128" t="inlineStr">
+        <is>
+          <t>DNAJC6,LYST,LRRK2,VPS35,VAMP4,KPNA1,CLCN3,MBNL2</t>
+        </is>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr"/>
@@ -8029,6 +8545,11 @@
           <t>CRLS1</t>
         </is>
       </c>
+      <c r="P129" t="inlineStr">
+        <is>
+          <t>DNAJC6,PANK2,LRRK2,PRKRA,VPS35,VAMP4,KPNA1,MCCC1,MBNL2</t>
+        </is>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr"/>
@@ -8088,6 +8609,11 @@
         </is>
       </c>
       <c r="O130" t="inlineStr"/>
+      <c r="P130" t="inlineStr">
+        <is>
+          <t>DNAJC6,SATB1,INPP5F</t>
+        </is>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr"/>
@@ -8147,6 +8673,11 @@
         </is>
       </c>
       <c r="O131" t="inlineStr"/>
+      <c r="P131" t="inlineStr">
+        <is>
+          <t>DNAJC6,VPS13A,VPS35,VAMP4,KCNS3,ASXL3</t>
+        </is>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr"/>
@@ -8210,6 +8741,11 @@
           <t>CRLS1</t>
         </is>
       </c>
+      <c r="P132" t="inlineStr">
+        <is>
+          <t>DNAJC6,VPS35,VAMP4,CAB39L</t>
+        </is>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr"/>
@@ -8269,6 +8805,11 @@
         </is>
       </c>
       <c r="O133" t="inlineStr"/>
+      <c r="P133" t="inlineStr">
+        <is>
+          <t>DYRK1A</t>
+        </is>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr"/>
@@ -8324,6 +8865,7 @@
       </c>
       <c r="N134" t="inlineStr"/>
       <c r="O134" t="inlineStr"/>
+      <c r="P134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr"/>
@@ -8387,6 +8929,7 @@
           <t>ELOVL7</t>
         </is>
       </c>
+      <c r="P135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr"/>
@@ -8450,6 +8993,7 @@
           <t>ELOVL7</t>
         </is>
       </c>
+      <c r="P136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr"/>
@@ -8513,6 +9057,11 @@
           <t>ELOVL7</t>
         </is>
       </c>
+      <c r="P137" t="inlineStr">
+        <is>
+          <t>GPNMB,BAG3</t>
+        </is>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr"/>
@@ -8576,6 +9125,7 @@
           <t>ELOVL7</t>
         </is>
       </c>
+      <c r="P138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr"/>
@@ -8639,6 +9189,7 @@
           <t>ELOVL7</t>
         </is>
       </c>
+      <c r="P139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr"/>
@@ -8702,6 +9253,11 @@
           <t>ELOVL7</t>
         </is>
       </c>
+      <c r="P140" t="inlineStr">
+        <is>
+          <t>ITGA8</t>
+        </is>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr"/>
@@ -8765,6 +9321,11 @@
           <t>ELOVL7</t>
         </is>
       </c>
+      <c r="P141" t="inlineStr">
+        <is>
+          <t>ITGA8</t>
+        </is>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr"/>
@@ -8828,6 +9389,11 @@
           <t>ELOVL7</t>
         </is>
       </c>
+      <c r="P142" t="inlineStr">
+        <is>
+          <t>ITGA8</t>
+        </is>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr"/>
@@ -8891,6 +9457,7 @@
           <t>ELOVL7</t>
         </is>
       </c>
+      <c r="P143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr"/>
@@ -8954,6 +9521,7 @@
           <t>ELOVL7</t>
         </is>
       </c>
+      <c r="P144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr"/>
@@ -9009,6 +9577,7 @@
       </c>
       <c r="N145" t="inlineStr"/>
       <c r="O145" t="inlineStr"/>
+      <c r="P145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr"/>
@@ -9064,6 +9633,7 @@
       </c>
       <c r="N146" t="inlineStr"/>
       <c r="O146" t="inlineStr"/>
+      <c r="P146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr"/>
@@ -9123,6 +9693,11 @@
         </is>
       </c>
       <c r="O147" t="inlineStr"/>
+      <c r="P147" t="inlineStr">
+        <is>
+          <t>FAM171A2</t>
+        </is>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr"/>
@@ -9186,6 +9761,11 @@
           <t>CRLS1</t>
         </is>
       </c>
+      <c r="P148" t="inlineStr">
+        <is>
+          <t>FAM47E,ASXL3</t>
+        </is>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr"/>
@@ -9245,6 +9825,11 @@
         </is>
       </c>
       <c r="O149" t="inlineStr"/>
+      <c r="P149" t="inlineStr">
+        <is>
+          <t>FAM47E</t>
+        </is>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr"/>
@@ -9304,6 +9889,11 @@
         </is>
       </c>
       <c r="O150" t="inlineStr"/>
+      <c r="P150" t="inlineStr">
+        <is>
+          <t>FAM47E</t>
+        </is>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr"/>
@@ -9363,6 +9953,11 @@
         </is>
       </c>
       <c r="O151" t="inlineStr"/>
+      <c r="P151" t="inlineStr">
+        <is>
+          <t>FAM47E</t>
+        </is>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr"/>
@@ -9418,6 +10013,11 @@
         </is>
       </c>
       <c r="O152" t="inlineStr"/>
+      <c r="P152" t="inlineStr">
+        <is>
+          <t>FAM47E,RIMS1,SYT17</t>
+        </is>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr"/>
@@ -9473,6 +10073,11 @@
         </is>
       </c>
       <c r="O153" t="inlineStr"/>
+      <c r="P153" t="inlineStr">
+        <is>
+          <t>FAM47E,RPS12</t>
+        </is>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr"/>
@@ -9532,6 +10137,11 @@
         </is>
       </c>
       <c r="O154" t="inlineStr"/>
+      <c r="P154" t="inlineStr">
+        <is>
+          <t>FAM47E,SYT17,WNT3</t>
+        </is>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr"/>
@@ -9591,6 +10201,11 @@
         </is>
       </c>
       <c r="O155" t="inlineStr"/>
+      <c r="P155" t="inlineStr">
+        <is>
+          <t>FAM47E,SYT17,WNT3</t>
+        </is>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr"/>
@@ -9650,6 +10265,11 @@
         </is>
       </c>
       <c r="O156" t="inlineStr"/>
+      <c r="P156" t="inlineStr">
+        <is>
+          <t>FAM47E-STBD1</t>
+        </is>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr"/>
@@ -9709,6 +10329,11 @@
         </is>
       </c>
       <c r="O157" t="inlineStr"/>
+      <c r="P157" t="inlineStr">
+        <is>
+          <t>FAM49B,SH3GL2</t>
+        </is>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr"/>
@@ -9768,6 +10393,11 @@
         </is>
       </c>
       <c r="O158" t="inlineStr"/>
+      <c r="P158" t="inlineStr">
+        <is>
+          <t>FAM49B</t>
+        </is>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr"/>
@@ -9827,6 +10457,11 @@
         </is>
       </c>
       <c r="O159" t="inlineStr"/>
+      <c r="P159" t="inlineStr">
+        <is>
+          <t>FBRSL1</t>
+        </is>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr"/>
@@ -9886,6 +10521,11 @@
         </is>
       </c>
       <c r="O160" t="inlineStr"/>
+      <c r="P160" t="inlineStr">
+        <is>
+          <t>FBRSL1,FAM171A2</t>
+        </is>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr"/>
@@ -9945,6 +10585,11 @@
         </is>
       </c>
       <c r="O161" t="inlineStr"/>
+      <c r="P161" t="inlineStr">
+        <is>
+          <t>FBRSL1</t>
+        </is>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr"/>
@@ -10004,6 +10649,11 @@
         </is>
       </c>
       <c r="O162" t="inlineStr"/>
+      <c r="P162" t="inlineStr">
+        <is>
+          <t>FBXO7,BST1,FAM47E,HIP1R</t>
+        </is>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr"/>
@@ -10063,6 +10713,11 @@
         </is>
       </c>
       <c r="O163" t="inlineStr"/>
+      <c r="P163" t="inlineStr">
+        <is>
+          <t>FBXO7,BST1,HIP1R,DNAH17</t>
+        </is>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr"/>
@@ -10122,6 +10777,11 @@
         </is>
       </c>
       <c r="O164" t="inlineStr"/>
+      <c r="P164" t="inlineStr">
+        <is>
+          <t>FBXO7,BST1,HIP1R</t>
+        </is>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr"/>
@@ -10181,6 +10841,11 @@
         </is>
       </c>
       <c r="O165" t="inlineStr"/>
+      <c r="P165" t="inlineStr">
+        <is>
+          <t>FBXO7,DNAH17</t>
+        </is>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr"/>
@@ -10240,6 +10905,11 @@
         </is>
       </c>
       <c r="O166" t="inlineStr"/>
+      <c r="P166" t="inlineStr">
+        <is>
+          <t>FBXO7,MAP4K4,BST1,HIP1R</t>
+        </is>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr"/>
@@ -10299,6 +10969,11 @@
         </is>
       </c>
       <c r="O167" t="inlineStr"/>
+      <c r="P167" t="inlineStr">
+        <is>
+          <t>FBXO7,MAP4K4,KCNS3,BST1,HIP1R,DNAH17</t>
+        </is>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr"/>
@@ -10358,6 +11033,11 @@
         </is>
       </c>
       <c r="O168" t="inlineStr"/>
+      <c r="P168" t="inlineStr">
+        <is>
+          <t>FBXO7,MAP4K4,RPS12,FGF20,RNF141</t>
+        </is>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr"/>
@@ -10417,6 +11097,11 @@
         </is>
       </c>
       <c r="O169" t="inlineStr"/>
+      <c r="P169" t="inlineStr">
+        <is>
+          <t>FBXO7</t>
+        </is>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr"/>
@@ -10476,6 +11161,11 @@
         </is>
       </c>
       <c r="O170" t="inlineStr"/>
+      <c r="P170" t="inlineStr">
+        <is>
+          <t>FBXO7,PSMF1</t>
+        </is>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr"/>
@@ -10535,6 +11225,11 @@
         </is>
       </c>
       <c r="O171" t="inlineStr"/>
+      <c r="P171" t="inlineStr">
+        <is>
+          <t>FBXO7,SCARB2,DNAH17</t>
+        </is>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr"/>
@@ -10594,6 +11289,11 @@
         </is>
       </c>
       <c r="O172" t="inlineStr"/>
+      <c r="P172" t="inlineStr">
+        <is>
+          <t>FBXO7,STK39,MAP4K4,BST1,RNF141,HIP1R,DNAH17</t>
+        </is>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr"/>
@@ -10653,6 +11353,11 @@
         </is>
       </c>
       <c r="O173" t="inlineStr"/>
+      <c r="P173" t="inlineStr">
+        <is>
+          <t>FBXO7,TH,MAP4K4,HIP1R,DNAH17</t>
+        </is>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr"/>
@@ -10712,6 +11417,11 @@
         </is>
       </c>
       <c r="O174" t="inlineStr"/>
+      <c r="P174" t="inlineStr">
+        <is>
+          <t>FCGR2A,GPNMB</t>
+        </is>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr"/>
@@ -10771,6 +11481,11 @@
         </is>
       </c>
       <c r="O175" t="inlineStr"/>
+      <c r="P175" t="inlineStr">
+        <is>
+          <t>FCGR2A,RAB32</t>
+        </is>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr"/>
@@ -10830,6 +11545,11 @@
         </is>
       </c>
       <c r="O176" t="inlineStr"/>
+      <c r="P176" t="inlineStr">
+        <is>
+          <t>FCGR2A,RAB32</t>
+        </is>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr"/>
@@ -10885,6 +11605,11 @@
         </is>
       </c>
       <c r="O177" t="inlineStr"/>
+      <c r="P177" t="inlineStr">
+        <is>
+          <t>FGF20</t>
+        </is>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr"/>
@@ -10940,6 +11665,7 @@
       </c>
       <c r="N178" t="inlineStr"/>
       <c r="O178" t="inlineStr"/>
+      <c r="P178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr"/>
@@ -10999,6 +11725,11 @@
         </is>
       </c>
       <c r="O179" t="inlineStr"/>
+      <c r="P179" t="inlineStr">
+        <is>
+          <t>FTL</t>
+        </is>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr"/>
@@ -11058,6 +11789,11 @@
         </is>
       </c>
       <c r="O180" t="inlineStr"/>
+      <c r="P180" t="inlineStr">
+        <is>
+          <t>FTL,FYN,GPNMB,BAG3,MEX3C</t>
+        </is>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr"/>
@@ -11117,6 +11853,11 @@
         </is>
       </c>
       <c r="O181" t="inlineStr"/>
+      <c r="P181" t="inlineStr">
+        <is>
+          <t>FTL,FYN,ITGA8,BAG3,MEX3C</t>
+        </is>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr"/>
@@ -11176,6 +11917,11 @@
         </is>
       </c>
       <c r="O182" t="inlineStr"/>
+      <c r="P182" t="inlineStr">
+        <is>
+          <t>FTL,GRN,CHRNB1</t>
+        </is>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr"/>
@@ -11235,6 +11981,11 @@
         </is>
       </c>
       <c r="O183" t="inlineStr"/>
+      <c r="P183" t="inlineStr">
+        <is>
+          <t>FTL,GRN,FCGR2A,GPNMB,CTSB,NOD2,RAB32</t>
+        </is>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr"/>
@@ -11298,6 +12049,11 @@
           <t>ELOVL7</t>
         </is>
       </c>
+      <c r="P184" t="inlineStr">
+        <is>
+          <t>FTL,GRN,SLC39A14,FAM47E-STBD1,GPNMB,BAG3</t>
+        </is>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr"/>
@@ -11357,6 +12113,11 @@
         </is>
       </c>
       <c r="O185" t="inlineStr"/>
+      <c r="P185" t="inlineStr">
+        <is>
+          <t>FTL</t>
+        </is>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr"/>
@@ -11420,6 +12181,11 @@
           <t>PMVK</t>
         </is>
       </c>
+      <c r="P186" t="inlineStr">
+        <is>
+          <t>FTL,CHRNB1</t>
+        </is>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr"/>
@@ -11483,6 +12249,11 @@
           <t>PMVK</t>
         </is>
       </c>
+      <c r="P187" t="inlineStr">
+        <is>
+          <t>FTL,RPS12</t>
+        </is>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr"/>
@@ -11538,6 +12309,11 @@
         </is>
       </c>
       <c r="O188" t="inlineStr"/>
+      <c r="P188" t="inlineStr">
+        <is>
+          <t>FTL,RPS12</t>
+        </is>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr"/>
@@ -11597,6 +12373,11 @@
         </is>
       </c>
       <c r="O189" t="inlineStr"/>
+      <c r="P189" t="inlineStr">
+        <is>
+          <t>FTL,RPS12</t>
+        </is>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr"/>
@@ -11656,6 +12437,11 @@
         </is>
       </c>
       <c r="O190" t="inlineStr"/>
+      <c r="P190" t="inlineStr">
+        <is>
+          <t>FTL,RPS12</t>
+        </is>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr"/>
@@ -11715,6 +12501,11 @@
         </is>
       </c>
       <c r="O191" t="inlineStr"/>
+      <c r="P191" t="inlineStr">
+        <is>
+          <t>FTL,SLC39A14,HLA-DRB5,GPNMB,SYT17</t>
+        </is>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr"/>
@@ -11774,6 +12565,11 @@
         </is>
       </c>
       <c r="O192" t="inlineStr"/>
+      <c r="P192" t="inlineStr">
+        <is>
+          <t>GAK,BIN3,GBF1,IGSF9B,FBRSL1,SETD1A</t>
+        </is>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr"/>
@@ -11833,6 +12629,11 @@
         </is>
       </c>
       <c r="O193" t="inlineStr"/>
+      <c r="P193" t="inlineStr">
+        <is>
+          <t>GAK,BIN3,SETD1A</t>
+        </is>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr"/>
@@ -11892,6 +12693,11 @@
         </is>
       </c>
       <c r="O194" t="inlineStr"/>
+      <c r="P194" t="inlineStr">
+        <is>
+          <t>GAK,GBF1</t>
+        </is>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr"/>
@@ -11955,6 +12761,11 @@
           <t>GALC</t>
         </is>
       </c>
+      <c r="P195" t="inlineStr">
+        <is>
+          <t>CAB39L,CHRNB1,UBTF,ASXL3</t>
+        </is>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr"/>
@@ -12018,6 +12829,11 @@
           <t>GALC</t>
         </is>
       </c>
+      <c r="P196" t="inlineStr">
+        <is>
+          <t>MEX3C</t>
+        </is>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr"/>
@@ -12077,6 +12893,11 @@
         </is>
       </c>
       <c r="O197" t="inlineStr"/>
+      <c r="P197" t="inlineStr">
+        <is>
+          <t>GBAP1,GS1-124K5.11</t>
+        </is>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr"/>
@@ -12136,6 +12957,11 @@
         </is>
       </c>
       <c r="O198" t="inlineStr"/>
+      <c r="P198" t="inlineStr">
+        <is>
+          <t>GBAP1,SATB1</t>
+        </is>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr"/>
@@ -12195,6 +13021,11 @@
         </is>
       </c>
       <c r="O199" t="inlineStr"/>
+      <c r="P199" t="inlineStr">
+        <is>
+          <t>GBAP1,TMEM175</t>
+        </is>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr"/>
@@ -12254,6 +13085,11 @@
         </is>
       </c>
       <c r="O200" t="inlineStr"/>
+      <c r="P200" t="inlineStr">
+        <is>
+          <t>GBAP1,TMEM175</t>
+        </is>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr"/>
@@ -12313,6 +13149,11 @@
         </is>
       </c>
       <c r="O201" t="inlineStr"/>
+      <c r="P201" t="inlineStr">
+        <is>
+          <t>GBAP1,TMEM175</t>
+        </is>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr"/>
@@ -12372,6 +13213,11 @@
         </is>
       </c>
       <c r="O202" t="inlineStr"/>
+      <c r="P202" t="inlineStr">
+        <is>
+          <t>GBAP1</t>
+        </is>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr"/>
@@ -12431,6 +13277,11 @@
         </is>
       </c>
       <c r="O203" t="inlineStr"/>
+      <c r="P203" t="inlineStr">
+        <is>
+          <t>GBF1</t>
+        </is>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr"/>
@@ -12490,6 +13341,11 @@
         </is>
       </c>
       <c r="O204" t="inlineStr"/>
+      <c r="P204" t="inlineStr">
+        <is>
+          <t>GBF1</t>
+        </is>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr"/>
@@ -12549,6 +13405,11 @@
         </is>
       </c>
       <c r="O205" t="inlineStr"/>
+      <c r="P205" t="inlineStr">
+        <is>
+          <t>GCH1</t>
+        </is>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr"/>
@@ -12612,6 +13473,11 @@
           <t>ELOVL7</t>
         </is>
       </c>
+      <c r="P206" t="inlineStr">
+        <is>
+          <t>GCH1</t>
+        </is>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr"/>
@@ -12671,6 +13537,11 @@
         </is>
       </c>
       <c r="O207" t="inlineStr"/>
+      <c r="P207" t="inlineStr">
+        <is>
+          <t>GCH1</t>
+        </is>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr"/>
@@ -12734,6 +13605,11 @@
           <t>GALC,CHD9,CRLS1</t>
         </is>
       </c>
+      <c r="P208" t="inlineStr">
+        <is>
+          <t>GCH1,LYST,LRRK2,LCORL,SCARB2,CLCN3,MIPOL1,MBNL2,CAB39L,SCAF11,VPS13C</t>
+        </is>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr"/>
@@ -12793,6 +13669,11 @@
         </is>
       </c>
       <c r="O209" t="inlineStr"/>
+      <c r="P209" t="inlineStr">
+        <is>
+          <t>GCH1,SLC39A14</t>
+        </is>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr"/>
@@ -12852,6 +13733,11 @@
         </is>
       </c>
       <c r="O210" t="inlineStr"/>
+      <c r="P210" t="inlineStr">
+        <is>
+          <t>GCH1,SLC39A14,CTSB</t>
+        </is>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr"/>
@@ -12911,6 +13797,11 @@
         </is>
       </c>
       <c r="O211" t="inlineStr"/>
+      <c r="P211" t="inlineStr">
+        <is>
+          <t>GCH1,SLC39A14,IGSF9B</t>
+        </is>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr"/>
@@ -12970,6 +13861,11 @@
         </is>
       </c>
       <c r="O212" t="inlineStr"/>
+      <c r="P212" t="inlineStr">
+        <is>
+          <t>GCH1,TH,IP6K2,PAM,SYT17,RIT2</t>
+        </is>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr"/>
@@ -13025,6 +13921,7 @@
       </c>
       <c r="N213" t="inlineStr"/>
       <c r="O213" t="inlineStr"/>
+      <c r="P213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr"/>
@@ -13080,6 +13977,7 @@
       </c>
       <c r="N214" t="inlineStr"/>
       <c r="O214" t="inlineStr"/>
+      <c r="P214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr"/>
@@ -13135,6 +14033,7 @@
       </c>
       <c r="N215" t="inlineStr"/>
       <c r="O215" t="inlineStr"/>
+      <c r="P215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr"/>
@@ -13194,6 +14093,11 @@
         </is>
       </c>
       <c r="O216" t="inlineStr"/>
+      <c r="P216" t="inlineStr">
+        <is>
+          <t>GPNMB</t>
+        </is>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr"/>
@@ -13253,6 +14157,11 @@
         </is>
       </c>
       <c r="O217" t="inlineStr"/>
+      <c r="P217" t="inlineStr">
+        <is>
+          <t>GPNMB,RAB32</t>
+        </is>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr"/>
@@ -13308,6 +14217,7 @@
       </c>
       <c r="N218" t="inlineStr"/>
       <c r="O218" t="inlineStr"/>
+      <c r="P218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr"/>
@@ -13367,6 +14277,11 @@
         </is>
       </c>
       <c r="O219" t="inlineStr"/>
+      <c r="P219" t="inlineStr">
+        <is>
+          <t>GRN,GAK</t>
+        </is>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr"/>
@@ -13426,6 +14341,11 @@
         </is>
       </c>
       <c r="O220" t="inlineStr"/>
+      <c r="P220" t="inlineStr">
+        <is>
+          <t>GRN,GAK</t>
+        </is>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr"/>
@@ -13485,6 +14405,11 @@
         </is>
       </c>
       <c r="O221" t="inlineStr"/>
+      <c r="P221" t="inlineStr">
+        <is>
+          <t>GRN</t>
+        </is>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr"/>
@@ -13544,6 +14469,11 @@
         </is>
       </c>
       <c r="O222" t="inlineStr"/>
+      <c r="P222" t="inlineStr">
+        <is>
+          <t>GRN</t>
+        </is>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr"/>
@@ -13603,6 +14533,11 @@
         </is>
       </c>
       <c r="O223" t="inlineStr"/>
+      <c r="P223" t="inlineStr">
+        <is>
+          <t>GRN,SPR,CTSB,BIN3</t>
+        </is>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr"/>
@@ -13662,6 +14597,11 @@
         </is>
       </c>
       <c r="O224" t="inlineStr"/>
+      <c r="P224" t="inlineStr">
+        <is>
+          <t>GRN,TUBB4A,BIN3,UBTF</t>
+        </is>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr"/>
@@ -13721,6 +14661,11 @@
         </is>
       </c>
       <c r="O225" t="inlineStr"/>
+      <c r="P225" t="inlineStr">
+        <is>
+          <t>GRN,WDR45,GAK,TMEM175</t>
+        </is>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr"/>
@@ -13780,6 +14725,11 @@
         </is>
       </c>
       <c r="O226" t="inlineStr"/>
+      <c r="P226" t="inlineStr">
+        <is>
+          <t>GS1-124K5.11</t>
+        </is>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr"/>
@@ -13839,6 +14789,11 @@
         </is>
       </c>
       <c r="O227" t="inlineStr"/>
+      <c r="P227" t="inlineStr">
+        <is>
+          <t>GS1-124K5.11,HIP1R</t>
+        </is>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr"/>
@@ -13898,6 +14853,11 @@
         </is>
       </c>
       <c r="O228" t="inlineStr"/>
+      <c r="P228" t="inlineStr">
+        <is>
+          <t>GS1-124K5.11</t>
+        </is>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr"/>
@@ -13953,6 +14913,7 @@
       </c>
       <c r="N229" t="inlineStr"/>
       <c r="O229" t="inlineStr"/>
+      <c r="P229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr"/>
@@ -14012,6 +14973,11 @@
         </is>
       </c>
       <c r="O230" t="inlineStr"/>
+      <c r="P230" t="inlineStr">
+        <is>
+          <t>HIP1R</t>
+        </is>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr"/>
@@ -14071,6 +15037,11 @@
         </is>
       </c>
       <c r="O231" t="inlineStr"/>
+      <c r="P231" t="inlineStr">
+        <is>
+          <t>HIP1R</t>
+        </is>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr"/>
@@ -14130,6 +15101,11 @@
         </is>
       </c>
       <c r="O232" t="inlineStr"/>
+      <c r="P232" t="inlineStr">
+        <is>
+          <t>HLA-DRB5</t>
+        </is>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr"/>
@@ -14189,6 +15165,11 @@
         </is>
       </c>
       <c r="O233" t="inlineStr"/>
+      <c r="P233" t="inlineStr">
+        <is>
+          <t>HLA-DRB5,ITGA8</t>
+        </is>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr"/>
@@ -14244,6 +15225,7 @@
       </c>
       <c r="N234" t="inlineStr"/>
       <c r="O234" t="inlineStr"/>
+      <c r="P234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr"/>
@@ -14299,6 +15281,7 @@
       </c>
       <c r="N235" t="inlineStr"/>
       <c r="O235" t="inlineStr"/>
+      <c r="P235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr"/>
@@ -14354,6 +15337,7 @@
       </c>
       <c r="N236" t="inlineStr"/>
       <c r="O236" t="inlineStr"/>
+      <c r="P236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr"/>
@@ -14409,6 +15393,7 @@
       </c>
       <c r="N237" t="inlineStr"/>
       <c r="O237" t="inlineStr"/>
+      <c r="P237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr"/>
@@ -14464,6 +15449,7 @@
       </c>
       <c r="N238" t="inlineStr"/>
       <c r="O238" t="inlineStr"/>
+      <c r="P238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr"/>
@@ -14519,6 +15505,7 @@
       </c>
       <c r="N239" t="inlineStr"/>
       <c r="O239" t="inlineStr"/>
+      <c r="P239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr"/>
@@ -14574,6 +15561,7 @@
       </c>
       <c r="N240" t="inlineStr"/>
       <c r="O240" t="inlineStr"/>
+      <c r="P240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr"/>
@@ -14633,6 +15621,11 @@
         </is>
       </c>
       <c r="O241" t="inlineStr"/>
+      <c r="P241" t="inlineStr">
+        <is>
+          <t>IGSF9B</t>
+        </is>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr"/>
@@ -14692,6 +15685,11 @@
         </is>
       </c>
       <c r="O242" t="inlineStr"/>
+      <c r="P242" t="inlineStr">
+        <is>
+          <t>IGSF9B</t>
+        </is>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr"/>
@@ -14751,6 +15749,11 @@
         </is>
       </c>
       <c r="O243" t="inlineStr"/>
+      <c r="P243" t="inlineStr">
+        <is>
+          <t>IGSF9B</t>
+        </is>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr"/>
@@ -14806,6 +15809,7 @@
       </c>
       <c r="N244" t="inlineStr"/>
       <c r="O244" t="inlineStr"/>
+      <c r="P244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr"/>
@@ -14865,6 +15869,11 @@
         </is>
       </c>
       <c r="O245" t="inlineStr"/>
+      <c r="P245" t="inlineStr">
+        <is>
+          <t>IP6K2</t>
+        </is>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr"/>
@@ -14924,6 +15933,11 @@
         </is>
       </c>
       <c r="O246" t="inlineStr"/>
+      <c r="P246" t="inlineStr">
+        <is>
+          <t>IP6K2,SETD1A,UBTF</t>
+        </is>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr"/>
@@ -14983,6 +15997,11 @@
         </is>
       </c>
       <c r="O247" t="inlineStr"/>
+      <c r="P247" t="inlineStr">
+        <is>
+          <t>ITGA8</t>
+        </is>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr"/>
@@ -15042,6 +16061,11 @@
         </is>
       </c>
       <c r="O248" t="inlineStr"/>
+      <c r="P248" t="inlineStr">
+        <is>
+          <t>ITGA8</t>
+        </is>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr"/>
@@ -15101,6 +16125,11 @@
         </is>
       </c>
       <c r="O249" t="inlineStr"/>
+      <c r="P249" t="inlineStr">
+        <is>
+          <t>ITGA8</t>
+        </is>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr"/>
@@ -15160,6 +16189,11 @@
         </is>
       </c>
       <c r="O250" t="inlineStr"/>
+      <c r="P250" t="inlineStr">
+        <is>
+          <t>ITGA8</t>
+        </is>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr"/>
@@ -15219,6 +16253,11 @@
         </is>
       </c>
       <c r="O251" t="inlineStr"/>
+      <c r="P251" t="inlineStr">
+        <is>
+          <t>KCNIP3</t>
+        </is>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr"/>
@@ -15278,6 +16317,11 @@
         </is>
       </c>
       <c r="O252" t="inlineStr"/>
+      <c r="P252" t="inlineStr">
+        <is>
+          <t>KCNIP3,FAM171A2</t>
+        </is>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr"/>
@@ -15337,6 +16381,11 @@
         </is>
       </c>
       <c r="O253" t="inlineStr"/>
+      <c r="P253" t="inlineStr">
+        <is>
+          <t>KCNIP3,FAM47E-STBD1</t>
+        </is>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr"/>
@@ -15396,6 +16445,11 @@
         </is>
       </c>
       <c r="O254" t="inlineStr"/>
+      <c r="P254" t="inlineStr">
+        <is>
+          <t>KCNIP3</t>
+        </is>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr"/>
@@ -15455,6 +16509,11 @@
         </is>
       </c>
       <c r="O255" t="inlineStr"/>
+      <c r="P255" t="inlineStr">
+        <is>
+          <t>KCNIP3,HLA-DRB5</t>
+        </is>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr"/>
@@ -15514,6 +16573,11 @@
         </is>
       </c>
       <c r="O256" t="inlineStr"/>
+      <c r="P256" t="inlineStr">
+        <is>
+          <t>KCNIP3,KCNS3</t>
+        </is>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr"/>
@@ -15573,6 +16637,11 @@
         </is>
       </c>
       <c r="O257" t="inlineStr"/>
+      <c r="P257" t="inlineStr">
+        <is>
+          <t>KCNIP3,SPTSSB,PAM,RIT2</t>
+        </is>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr"/>
@@ -15632,6 +16701,11 @@
         </is>
       </c>
       <c r="O258" t="inlineStr"/>
+      <c r="P258" t="inlineStr">
+        <is>
+          <t>KCNS3,DNAH17</t>
+        </is>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr"/>
@@ -15691,6 +16765,11 @@
         </is>
       </c>
       <c r="O259" t="inlineStr"/>
+      <c r="P259" t="inlineStr">
+        <is>
+          <t>KCNS3</t>
+        </is>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr"/>
@@ -15750,6 +16829,11 @@
         </is>
       </c>
       <c r="O260" t="inlineStr"/>
+      <c r="P260" t="inlineStr">
+        <is>
+          <t>KCNS3,LCORL,FAM47E-STBD1,FAM47E,ASXL3</t>
+        </is>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr"/>
@@ -15809,6 +16893,11 @@
         </is>
       </c>
       <c r="O261" t="inlineStr"/>
+      <c r="P261" t="inlineStr">
+        <is>
+          <t>KPNA1</t>
+        </is>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr"/>
@@ -15868,6 +16957,11 @@
         </is>
       </c>
       <c r="O262" t="inlineStr"/>
+      <c r="P262" t="inlineStr">
+        <is>
+          <t>KPNA1,CLCN3,MBNL2</t>
+        </is>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr"/>
@@ -15927,6 +17021,11 @@
         </is>
       </c>
       <c r="O263" t="inlineStr"/>
+      <c r="P263" t="inlineStr">
+        <is>
+          <t>KPNA1</t>
+        </is>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr"/>
@@ -15986,6 +17085,11 @@
         </is>
       </c>
       <c r="O264" t="inlineStr"/>
+      <c r="P264" t="inlineStr">
+        <is>
+          <t>KPNA1,LCORL</t>
+        </is>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr"/>
@@ -16041,6 +17145,7 @@
       </c>
       <c r="N265" t="inlineStr"/>
       <c r="O265" t="inlineStr"/>
+      <c r="P265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr"/>
@@ -16096,6 +17201,7 @@
       </c>
       <c r="N266" t="inlineStr"/>
       <c r="O266" t="inlineStr"/>
+      <c r="P266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr"/>
@@ -16151,6 +17257,7 @@
       </c>
       <c r="N267" t="inlineStr"/>
       <c r="O267" t="inlineStr"/>
+      <c r="P267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr"/>
@@ -16206,6 +17313,7 @@
       </c>
       <c r="N268" t="inlineStr"/>
       <c r="O268" t="inlineStr"/>
+      <c r="P268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr"/>
@@ -16261,6 +17369,7 @@
       </c>
       <c r="N269" t="inlineStr"/>
       <c r="O269" t="inlineStr"/>
+      <c r="P269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr"/>
@@ -16320,6 +17429,11 @@
         </is>
       </c>
       <c r="O270" t="inlineStr"/>
+      <c r="P270" t="inlineStr">
+        <is>
+          <t>LCORL</t>
+        </is>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr"/>
@@ -16379,6 +17493,11 @@
         </is>
       </c>
       <c r="O271" t="inlineStr"/>
+      <c r="P271" t="inlineStr">
+        <is>
+          <t>LCORL,CLCN3,FAM49B,DLG2</t>
+        </is>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr"/>
@@ -16442,6 +17561,11 @@
           <t>GALC</t>
         </is>
       </c>
+      <c r="P272" t="inlineStr">
+        <is>
+          <t>LCORL</t>
+        </is>
+      </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr"/>
@@ -16497,6 +17621,7 @@
       </c>
       <c r="N273" t="inlineStr"/>
       <c r="O273" t="inlineStr"/>
+      <c r="P273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr"/>
@@ -16556,6 +17681,11 @@
         </is>
       </c>
       <c r="O274" t="inlineStr"/>
+      <c r="P274" t="inlineStr">
+        <is>
+          <t>LINC00693,CAB39L,CHRNB1</t>
+        </is>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr"/>
@@ -16619,6 +17749,11 @@
           <t>CRLS1</t>
         </is>
       </c>
+      <c r="P275" t="inlineStr">
+        <is>
+          <t>LINC00693,CAB39L</t>
+        </is>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr"/>
@@ -16678,6 +17813,11 @@
         </is>
       </c>
       <c r="O276" t="inlineStr"/>
+      <c r="P276" t="inlineStr">
+        <is>
+          <t>LINC00693,CAB39L</t>
+        </is>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr"/>
@@ -16737,6 +17877,11 @@
         </is>
       </c>
       <c r="O277" t="inlineStr"/>
+      <c r="P277" t="inlineStr">
+        <is>
+          <t>LINC00693</t>
+        </is>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr"/>
@@ -16796,6 +17941,11 @@
         </is>
       </c>
       <c r="O278" t="inlineStr"/>
+      <c r="P278" t="inlineStr">
+        <is>
+          <t>LINC00693,DLG2</t>
+        </is>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr"/>
@@ -16855,6 +18005,11 @@
         </is>
       </c>
       <c r="O279" t="inlineStr"/>
+      <c r="P279" t="inlineStr">
+        <is>
+          <t>LINC00693,FYN,CHRNB1</t>
+        </is>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr"/>
@@ -16914,6 +18069,11 @@
         </is>
       </c>
       <c r="O280" t="inlineStr"/>
+      <c r="P280" t="inlineStr">
+        <is>
+          <t>LINC00693,FYN</t>
+        </is>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr"/>
@@ -16973,6 +18133,11 @@
         </is>
       </c>
       <c r="O281" t="inlineStr"/>
+      <c r="P281" t="inlineStr">
+        <is>
+          <t>LINC00693,MIPOL1,CAB39L</t>
+        </is>
+      </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr"/>
@@ -17032,6 +18197,11 @@
         </is>
       </c>
       <c r="O282" t="inlineStr"/>
+      <c r="P282" t="inlineStr">
+        <is>
+          <t>LINC00693</t>
+        </is>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr"/>
@@ -17091,6 +18261,11 @@
         </is>
       </c>
       <c r="O283" t="inlineStr"/>
+      <c r="P283" t="inlineStr">
+        <is>
+          <t>LRRK2</t>
+        </is>
+      </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr"/>
@@ -17154,6 +18329,11 @@
           <t>CRLS1</t>
         </is>
       </c>
+      <c r="P284" t="inlineStr">
+        <is>
+          <t>LRRK2</t>
+        </is>
+      </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr"/>
@@ -17213,6 +18393,11 @@
         </is>
       </c>
       <c r="O285" t="inlineStr"/>
+      <c r="P285" t="inlineStr">
+        <is>
+          <t>LRRK2,KCNS3</t>
+        </is>
+      </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr"/>
@@ -17276,6 +18461,11 @@
           <t>GALC,CHD9</t>
         </is>
       </c>
+      <c r="P286" t="inlineStr">
+        <is>
+          <t>LRRK2,LCORL,VPS13C</t>
+        </is>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr"/>
@@ -17335,6 +18525,11 @@
         </is>
       </c>
       <c r="O287" t="inlineStr"/>
+      <c r="P287" t="inlineStr">
+        <is>
+          <t>LRRK2,NUCKS1,STK39,MCCC1,SCARB2,CLCN3,VPS13C</t>
+        </is>
+      </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr"/>
@@ -17394,6 +18589,11 @@
         </is>
       </c>
       <c r="O288" t="inlineStr"/>
+      <c r="P288" t="inlineStr">
+        <is>
+          <t>LRRK2,PRKRA,VPS35,SPTSSB,PAM</t>
+        </is>
+      </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr"/>
@@ -17453,6 +18653,11 @@
         </is>
       </c>
       <c r="O289" t="inlineStr"/>
+      <c r="P289" t="inlineStr">
+        <is>
+          <t>LRRK2,RNF141</t>
+        </is>
+      </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr"/>
@@ -17516,6 +18721,11 @@
           <t>CHD9</t>
         </is>
       </c>
+      <c r="P290" t="inlineStr">
+        <is>
+          <t>LRRK2,SPG11,SCAF11,VPS13C</t>
+        </is>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr"/>
@@ -17579,6 +18789,11 @@
           <t>SYNJ1</t>
         </is>
       </c>
+      <c r="P291" t="inlineStr">
+        <is>
+          <t>LRRK2,VPS13A,SPTSSB,PAM,SNCA,FAM49B,SH3GL2,INPP5F,DLG2</t>
+        </is>
+      </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr"/>
@@ -17638,6 +18853,11 @@
         </is>
       </c>
       <c r="O292" t="inlineStr"/>
+      <c r="P292" t="inlineStr">
+        <is>
+          <t>LRRK2,VAMP4</t>
+        </is>
+      </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr"/>
@@ -17697,6 +18917,11 @@
         </is>
       </c>
       <c r="O293" t="inlineStr"/>
+      <c r="P293" t="inlineStr">
+        <is>
+          <t>LYST,KPNA1,LCORL,FYN,CTSB,MEX3C</t>
+        </is>
+      </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr"/>
@@ -17756,6 +18981,11 @@
         </is>
       </c>
       <c r="O294" t="inlineStr"/>
+      <c r="P294" t="inlineStr">
+        <is>
+          <t>LYST</t>
+        </is>
+      </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr"/>
@@ -17815,6 +19045,11 @@
         </is>
       </c>
       <c r="O295" t="inlineStr"/>
+      <c r="P295" t="inlineStr">
+        <is>
+          <t>LYST</t>
+        </is>
+      </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr"/>
@@ -17874,6 +19109,11 @@
         </is>
       </c>
       <c r="O296" t="inlineStr"/>
+      <c r="P296" t="inlineStr">
+        <is>
+          <t>LYST</t>
+        </is>
+      </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr"/>
@@ -17937,6 +19177,11 @@
           <t>CHD9</t>
         </is>
       </c>
+      <c r="P297" t="inlineStr">
+        <is>
+          <t>LYST,SLC39A14,MIPOL1</t>
+        </is>
+      </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr"/>
@@ -18000,6 +19245,11 @@
           <t>CHD9</t>
         </is>
       </c>
+      <c r="P298" t="inlineStr">
+        <is>
+          <t>LYST,SPG11,VPS13C</t>
+        </is>
+      </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr"/>
@@ -18063,6 +19313,11 @@
           <t>SYNJ1,CHD9</t>
         </is>
       </c>
+      <c r="P299" t="inlineStr">
+        <is>
+          <t>LYST</t>
+        </is>
+      </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr"/>
@@ -18126,6 +19381,11 @@
           <t>SYNJ1</t>
         </is>
       </c>
+      <c r="P300" t="inlineStr">
+        <is>
+          <t>LYST,VPS13A,VPS13C</t>
+        </is>
+      </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr"/>
@@ -18185,6 +19445,11 @@
         </is>
       </c>
       <c r="O301" t="inlineStr"/>
+      <c r="P301" t="inlineStr">
+        <is>
+          <t>LYST,VAMP4,MBNL2</t>
+        </is>
+      </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr"/>
@@ -18244,6 +19509,11 @@
         </is>
       </c>
       <c r="O302" t="inlineStr"/>
+      <c r="P302" t="inlineStr">
+        <is>
+          <t>LYST,VPS13C</t>
+        </is>
+      </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr"/>
@@ -18303,6 +19573,11 @@
         </is>
       </c>
       <c r="O303" t="inlineStr"/>
+      <c r="P303" t="inlineStr">
+        <is>
+          <t>MAP4K4,HIP1R,DNAH17</t>
+        </is>
+      </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr"/>
@@ -18362,6 +19637,11 @@
         </is>
       </c>
       <c r="O304" t="inlineStr"/>
+      <c r="P304" t="inlineStr">
+        <is>
+          <t>MAP4K4,HLA-DRB5</t>
+        </is>
+      </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr"/>
@@ -18421,6 +19701,11 @@
         </is>
       </c>
       <c r="O305" t="inlineStr"/>
+      <c r="P305" t="inlineStr">
+        <is>
+          <t>MAP4K4,MED12L,C5orf24</t>
+        </is>
+      </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr"/>
@@ -18480,6 +19765,11 @@
         </is>
       </c>
       <c r="O306" t="inlineStr"/>
+      <c r="P306" t="inlineStr">
+        <is>
+          <t>MAP4K4,RNF141</t>
+        </is>
+      </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr"/>
@@ -18539,6 +19829,11 @@
         </is>
       </c>
       <c r="O307" t="inlineStr"/>
+      <c r="P307" t="inlineStr">
+        <is>
+          <t>MAP4K4</t>
+        </is>
+      </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr"/>
@@ -18598,6 +19893,11 @@
         </is>
       </c>
       <c r="O308" t="inlineStr"/>
+      <c r="P308" t="inlineStr">
+        <is>
+          <t>MAP4K4</t>
+        </is>
+      </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr"/>
@@ -18657,6 +19957,11 @@
         </is>
       </c>
       <c r="O309" t="inlineStr"/>
+      <c r="P309" t="inlineStr">
+        <is>
+          <t>MAP4K4</t>
+        </is>
+      </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr"/>
@@ -18716,6 +20021,11 @@
         </is>
       </c>
       <c r="O310" t="inlineStr"/>
+      <c r="P310" t="inlineStr">
+        <is>
+          <t>MBNL2</t>
+        </is>
+      </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr"/>
@@ -18775,6 +20085,11 @@
         </is>
       </c>
       <c r="O311" t="inlineStr"/>
+      <c r="P311" t="inlineStr">
+        <is>
+          <t>MBNL2</t>
+        </is>
+      </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr"/>
@@ -18830,6 +20145,7 @@
       </c>
       <c r="N312" t="inlineStr"/>
       <c r="O312" t="inlineStr"/>
+      <c r="P312" t="inlineStr"/>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr"/>
@@ -18885,6 +20201,7 @@
       </c>
       <c r="N313" t="inlineStr"/>
       <c r="O313" t="inlineStr"/>
+      <c r="P313" t="inlineStr"/>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr"/>
@@ -18940,6 +20257,7 @@
       </c>
       <c r="N314" t="inlineStr"/>
       <c r="O314" t="inlineStr"/>
+      <c r="P314" t="inlineStr"/>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr"/>
@@ -18995,6 +20313,7 @@
       </c>
       <c r="N315" t="inlineStr"/>
       <c r="O315" t="inlineStr"/>
+      <c r="P315" t="inlineStr"/>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr"/>
@@ -19050,6 +20369,7 @@
       </c>
       <c r="N316" t="inlineStr"/>
       <c r="O316" t="inlineStr"/>
+      <c r="P316" t="inlineStr"/>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr"/>
@@ -19109,6 +20429,11 @@
         </is>
       </c>
       <c r="O317" t="inlineStr"/>
+      <c r="P317" t="inlineStr">
+        <is>
+          <t>MED12L,DYRK1A</t>
+        </is>
+      </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr"/>
@@ -19168,6 +20493,11 @@
         </is>
       </c>
       <c r="O318" t="inlineStr"/>
+      <c r="P318" t="inlineStr">
+        <is>
+          <t>MED12L,DYRK1A</t>
+        </is>
+      </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr"/>
@@ -19227,6 +20557,11 @@
         </is>
       </c>
       <c r="O319" t="inlineStr"/>
+      <c r="P319" t="inlineStr">
+        <is>
+          <t>MED12L,DYRK1A</t>
+        </is>
+      </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr"/>
@@ -19286,6 +20621,11 @@
         </is>
       </c>
       <c r="O320" t="inlineStr"/>
+      <c r="P320" t="inlineStr">
+        <is>
+          <t>MED12L</t>
+        </is>
+      </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr"/>
@@ -19341,6 +20681,7 @@
       </c>
       <c r="N321" t="inlineStr"/>
       <c r="O321" t="inlineStr"/>
+      <c r="P321" t="inlineStr"/>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr"/>
@@ -19396,6 +20737,7 @@
       </c>
       <c r="N322" t="inlineStr"/>
       <c r="O322" t="inlineStr"/>
+      <c r="P322" t="inlineStr"/>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr"/>
@@ -19451,6 +20793,7 @@
       </c>
       <c r="N323" t="inlineStr"/>
       <c r="O323" t="inlineStr"/>
+      <c r="P323" t="inlineStr"/>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr"/>
@@ -19506,6 +20849,7 @@
       </c>
       <c r="N324" t="inlineStr"/>
       <c r="O324" t="inlineStr"/>
+      <c r="P324" t="inlineStr"/>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr"/>
@@ -19561,6 +20905,7 @@
       </c>
       <c r="N325" t="inlineStr"/>
       <c r="O325" t="inlineStr"/>
+      <c r="P325" t="inlineStr"/>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr"/>
@@ -19616,6 +20961,7 @@
       </c>
       <c r="N326" t="inlineStr"/>
       <c r="O326" t="inlineStr"/>
+      <c r="P326" t="inlineStr"/>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr"/>
@@ -19671,6 +21017,7 @@
       </c>
       <c r="N327" t="inlineStr"/>
       <c r="O327" t="inlineStr"/>
+      <c r="P327" t="inlineStr"/>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr"/>
@@ -19726,6 +21073,7 @@
       </c>
       <c r="N328" t="inlineStr"/>
       <c r="O328" t="inlineStr"/>
+      <c r="P328" t="inlineStr"/>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr"/>
@@ -19785,6 +21133,11 @@
         </is>
       </c>
       <c r="O329" t="inlineStr"/>
+      <c r="P329" t="inlineStr">
+        <is>
+          <t>MEX3C</t>
+        </is>
+      </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr"/>
@@ -19844,6 +21197,11 @@
         </is>
       </c>
       <c r="O330" t="inlineStr"/>
+      <c r="P330" t="inlineStr">
+        <is>
+          <t>MIPOL1</t>
+        </is>
+      </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr"/>
@@ -19903,6 +21261,11 @@
         </is>
       </c>
       <c r="O331" t="inlineStr"/>
+      <c r="P331" t="inlineStr">
+        <is>
+          <t>MIPOL1</t>
+        </is>
+      </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr"/>
@@ -19962,6 +21325,11 @@
         </is>
       </c>
       <c r="O332" t="inlineStr"/>
+      <c r="P332" t="inlineStr">
+        <is>
+          <t>MIPOL1,MEX3C</t>
+        </is>
+      </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr"/>
@@ -20021,6 +21389,11 @@
         </is>
       </c>
       <c r="O333" t="inlineStr"/>
+      <c r="P333" t="inlineStr">
+        <is>
+          <t>MIPOL1,MEX3C</t>
+        </is>
+      </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr"/>
@@ -20080,6 +21453,11 @@
         </is>
       </c>
       <c r="O334" t="inlineStr"/>
+      <c r="P334" t="inlineStr">
+        <is>
+          <t>MIPOL1</t>
+        </is>
+      </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr"/>
@@ -20135,6 +21513,7 @@
       </c>
       <c r="N335" t="inlineStr"/>
       <c r="O335" t="inlineStr"/>
+      <c r="P335" t="inlineStr"/>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr"/>
@@ -20190,6 +21569,7 @@
       </c>
       <c r="N336" t="inlineStr"/>
       <c r="O336" t="inlineStr"/>
+      <c r="P336" t="inlineStr"/>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr"/>
@@ -20245,6 +21625,7 @@
       </c>
       <c r="N337" t="inlineStr"/>
       <c r="O337" t="inlineStr"/>
+      <c r="P337" t="inlineStr"/>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr"/>
@@ -20300,6 +21681,7 @@
       </c>
       <c r="N338" t="inlineStr"/>
       <c r="O338" t="inlineStr"/>
+      <c r="P338" t="inlineStr"/>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr"/>
@@ -20355,6 +21737,7 @@
       </c>
       <c r="N339" t="inlineStr"/>
       <c r="O339" t="inlineStr"/>
+      <c r="P339" t="inlineStr"/>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr"/>
@@ -20410,6 +21793,7 @@
       </c>
       <c r="N340" t="inlineStr"/>
       <c r="O340" t="inlineStr"/>
+      <c r="P340" t="inlineStr"/>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr"/>
@@ -20465,6 +21849,7 @@
       </c>
       <c r="N341" t="inlineStr"/>
       <c r="O341" t="inlineStr"/>
+      <c r="P341" t="inlineStr"/>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr"/>
@@ -20520,6 +21905,7 @@
       </c>
       <c r="N342" t="inlineStr"/>
       <c r="O342" t="inlineStr"/>
+      <c r="P342" t="inlineStr"/>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr"/>
@@ -20575,6 +21961,7 @@
       </c>
       <c r="N343" t="inlineStr"/>
       <c r="O343" t="inlineStr"/>
+      <c r="P343" t="inlineStr"/>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr"/>
@@ -20634,6 +22021,11 @@
         </is>
       </c>
       <c r="O344" t="inlineStr"/>
+      <c r="P344" t="inlineStr">
+        <is>
+          <t>NUCKS1</t>
+        </is>
+      </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr"/>
@@ -20693,6 +22085,11 @@
         </is>
       </c>
       <c r="O345" t="inlineStr"/>
+      <c r="P345" t="inlineStr">
+        <is>
+          <t>NUCKS1,MED12L,C5orf24,DYRK1A</t>
+        </is>
+      </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr"/>
@@ -20752,6 +22149,11 @@
         </is>
       </c>
       <c r="O346" t="inlineStr"/>
+      <c r="P346" t="inlineStr">
+        <is>
+          <t>NUCKS1</t>
+        </is>
+      </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr"/>
@@ -20815,6 +22217,11 @@
           <t>GALC</t>
         </is>
       </c>
+      <c r="P347" t="inlineStr">
+        <is>
+          <t>NUCKS1,SATB1,STK39,SCARB2,CLCN3,RNF141</t>
+        </is>
+      </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr"/>
@@ -20874,6 +22281,11 @@
         </is>
       </c>
       <c r="O348" t="inlineStr"/>
+      <c r="P348" t="inlineStr">
+        <is>
+          <t>NUCKS1,SCAF11</t>
+        </is>
+      </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr"/>
@@ -20937,6 +22349,11 @@
           <t>GALC</t>
         </is>
       </c>
+      <c r="P349" t="inlineStr">
+        <is>
+          <t>NUCKS1,SCARB2,MBNL2</t>
+        </is>
+      </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr"/>
@@ -20996,6 +22413,11 @@
         </is>
       </c>
       <c r="O350" t="inlineStr"/>
+      <c r="P350" t="inlineStr">
+        <is>
+          <t>NUCKS1,STK39,MCCC1,RNF141</t>
+        </is>
+      </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr"/>
@@ -21055,6 +22477,11 @@
         </is>
       </c>
       <c r="O351" t="inlineStr"/>
+      <c r="P351" t="inlineStr">
+        <is>
+          <t>OPA3,IP6K2,GAK,UBAP2,GBF1,FBRSL1,SETD1A,UBTF</t>
+        </is>
+      </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr"/>
@@ -21114,6 +22541,11 @@
         </is>
       </c>
       <c r="O352" t="inlineStr"/>
+      <c r="P352" t="inlineStr">
+        <is>
+          <t>OPA3,TMEM163,MCCC1</t>
+        </is>
+      </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr"/>
@@ -21173,6 +22605,11 @@
         </is>
       </c>
       <c r="O353" t="inlineStr"/>
+      <c r="P353" t="inlineStr">
+        <is>
+          <t>OPA3,WDR45,GBAP1,GAK,GBF1,FBRSL1</t>
+        </is>
+      </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr"/>
@@ -21232,6 +22669,11 @@
         </is>
       </c>
       <c r="O354" t="inlineStr"/>
+      <c r="P354" t="inlineStr">
+        <is>
+          <t>OPA3,WDR45</t>
+        </is>
+      </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr"/>
@@ -21287,6 +22729,7 @@
       </c>
       <c r="N355" t="inlineStr"/>
       <c r="O355" t="inlineStr"/>
+      <c r="P355" t="inlineStr"/>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr"/>
@@ -21346,6 +22789,11 @@
         </is>
       </c>
       <c r="O356" t="inlineStr"/>
+      <c r="P356" t="inlineStr">
+        <is>
+          <t>PANK2</t>
+        </is>
+      </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr"/>
@@ -21405,6 +22853,11 @@
         </is>
       </c>
       <c r="O357" t="inlineStr"/>
+      <c r="P357" t="inlineStr">
+        <is>
+          <t>PANK2,KPNA1,MCCC1,CAMK2D,SH3GL2</t>
+        </is>
+      </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr"/>
@@ -21464,6 +22917,11 @@
         </is>
       </c>
       <c r="O358" t="inlineStr"/>
+      <c r="P358" t="inlineStr">
+        <is>
+          <t>PANK2</t>
+        </is>
+      </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr"/>
@@ -21523,6 +22981,11 @@
         </is>
       </c>
       <c r="O359" t="inlineStr"/>
+      <c r="P359" t="inlineStr">
+        <is>
+          <t>PANK2,SLC39A14,INPP5F</t>
+        </is>
+      </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr"/>
@@ -21582,6 +23045,11 @@
         </is>
       </c>
       <c r="O360" t="inlineStr"/>
+      <c r="P360" t="inlineStr">
+        <is>
+          <t>PANK2</t>
+        </is>
+      </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr"/>
@@ -21641,6 +23109,11 @@
         </is>
       </c>
       <c r="O361" t="inlineStr"/>
+      <c r="P361" t="inlineStr">
+        <is>
+          <t>PARK7</t>
+        </is>
+      </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr"/>
@@ -21700,6 +23173,11 @@
         </is>
       </c>
       <c r="O362" t="inlineStr"/>
+      <c r="P362" t="inlineStr">
+        <is>
+          <t>PARK7</t>
+        </is>
+      </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr"/>
@@ -21759,6 +23237,11 @@
         </is>
       </c>
       <c r="O363" t="inlineStr"/>
+      <c r="P363" t="inlineStr">
+        <is>
+          <t>PARK7</t>
+        </is>
+      </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr"/>
@@ -21818,6 +23301,11 @@
         </is>
       </c>
       <c r="O364" t="inlineStr"/>
+      <c r="P364" t="inlineStr">
+        <is>
+          <t>PARK7</t>
+        </is>
+      </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr"/>
@@ -21881,6 +23369,11 @@
           <t>PMVK</t>
         </is>
       </c>
+      <c r="P365" t="inlineStr">
+        <is>
+          <t>PARK7</t>
+        </is>
+      </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr"/>
@@ -21940,6 +23433,11 @@
         </is>
       </c>
       <c r="O366" t="inlineStr"/>
+      <c r="P366" t="inlineStr">
+        <is>
+          <t>PARK7,PSMF1</t>
+        </is>
+      </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr"/>
@@ -21999,6 +23497,11 @@
         </is>
       </c>
       <c r="O367" t="inlineStr"/>
+      <c r="P367" t="inlineStr">
+        <is>
+          <t>PARK7,RIT2</t>
+        </is>
+      </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr"/>
@@ -22062,6 +23565,11 @@
           <t>PMVK</t>
         </is>
       </c>
+      <c r="P368" t="inlineStr">
+        <is>
+          <t>PARK7,TH,WDR45</t>
+        </is>
+      </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr"/>
@@ -22121,6 +23629,11 @@
         </is>
       </c>
       <c r="O369" t="inlineStr"/>
+      <c r="P369" t="inlineStr">
+        <is>
+          <t>PARK7,WDR45</t>
+        </is>
+      </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr"/>
@@ -22184,6 +23697,11 @@
           <t>PMVK</t>
         </is>
       </c>
+      <c r="P370" t="inlineStr">
+        <is>
+          <t>PARK7,WDR45,KCNS3,CHRNB1</t>
+        </is>
+      </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr"/>
@@ -22243,6 +23761,11 @@
         </is>
       </c>
       <c r="O371" t="inlineStr"/>
+      <c r="P371" t="inlineStr">
+        <is>
+          <t>PARK7,WDR45,PSMF1</t>
+        </is>
+      </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr"/>
@@ -22302,6 +23825,11 @@
         </is>
       </c>
       <c r="O372" t="inlineStr"/>
+      <c r="P372" t="inlineStr">
+        <is>
+          <t>PARK7,WDR45,PSMF1</t>
+        </is>
+      </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr"/>
@@ -22361,6 +23889,11 @@
         </is>
       </c>
       <c r="O373" t="inlineStr"/>
+      <c r="P373" t="inlineStr">
+        <is>
+          <t>PARK7,WDR45,RPS12,PSMF1</t>
+        </is>
+      </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr"/>
@@ -22416,6 +23949,7 @@
       </c>
       <c r="N374" t="inlineStr"/>
       <c r="O374" t="inlineStr"/>
+      <c r="P374" t="inlineStr"/>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr"/>
@@ -22471,6 +24005,7 @@
       </c>
       <c r="N375" t="inlineStr"/>
       <c r="O375" t="inlineStr"/>
+      <c r="P375" t="inlineStr"/>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr"/>
@@ -22526,6 +24061,7 @@
       </c>
       <c r="N376" t="inlineStr"/>
       <c r="O376" t="inlineStr"/>
+      <c r="P376" t="inlineStr"/>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr"/>
@@ -22581,6 +24117,7 @@
       </c>
       <c r="N377" t="inlineStr"/>
       <c r="O377" t="inlineStr"/>
+      <c r="P377" t="inlineStr"/>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr"/>
@@ -22636,6 +24173,7 @@
       </c>
       <c r="N378" t="inlineStr"/>
       <c r="O378" t="inlineStr"/>
+      <c r="P378" t="inlineStr"/>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr"/>
@@ -22691,6 +24229,7 @@
       </c>
       <c r="N379" t="inlineStr"/>
       <c r="O379" t="inlineStr"/>
+      <c r="P379" t="inlineStr"/>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr"/>
@@ -22746,6 +24285,7 @@
       </c>
       <c r="N380" t="inlineStr"/>
       <c r="O380" t="inlineStr"/>
+      <c r="P380" t="inlineStr"/>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr"/>
@@ -22809,6 +24349,11 @@
           <t>PLA2G6</t>
         </is>
       </c>
+      <c r="P381" t="inlineStr">
+        <is>
+          <t>FGF20</t>
+        </is>
+      </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr"/>
@@ -22872,6 +24417,11 @@
           <t>PLA2G6</t>
         </is>
       </c>
+      <c r="P382" t="inlineStr">
+        <is>
+          <t>GBAP1,GAK,TMEM175,GS1-124K5.11,FBRSL1,SETD1A</t>
+        </is>
+      </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr"/>
@@ -22935,6 +24485,11 @@
           <t>PLA2G6</t>
         </is>
       </c>
+      <c r="P383" t="inlineStr">
+        <is>
+          <t>GBAP1,GAK,TMEM175,GS1-124K5.11,IGSF9B,FBRSL1,SETD1A,SPPL2B</t>
+        </is>
+      </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr"/>
@@ -22998,6 +24553,11 @@
           <t>PLA2G6</t>
         </is>
       </c>
+      <c r="P384" t="inlineStr">
+        <is>
+          <t>GRN,IP6K2,GAK,TMEM175,GS1-124K5.11,SETD1A,SPPL2B</t>
+        </is>
+      </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr"/>
@@ -23061,6 +24621,11 @@
           <t>PLA2G6</t>
         </is>
       </c>
+      <c r="P385" t="inlineStr">
+        <is>
+          <t>GS1-124K5.11,HIP1R,SETD1A,SPPL2B</t>
+        </is>
+      </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr"/>
@@ -23124,6 +24689,11 @@
           <t>PLA2G6</t>
         </is>
       </c>
+      <c r="P386" t="inlineStr">
+        <is>
+          <t>GS1-124K5.11,SPPL2B</t>
+        </is>
+      </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr"/>
@@ -23187,6 +24757,11 @@
           <t>PLA2G6</t>
         </is>
       </c>
+      <c r="P387" t="inlineStr">
+        <is>
+          <t>IP6K2,SETD1A</t>
+        </is>
+      </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr"/>
@@ -23250,6 +24825,11 @@
           <t>PLA2G6</t>
         </is>
       </c>
+      <c r="P388" t="inlineStr">
+        <is>
+          <t>IP6K2,TMEM175,SETD1A,UBTF</t>
+        </is>
+      </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr"/>
@@ -23313,6 +24893,7 @@
           <t>PLA2G6,PMVK</t>
         </is>
       </c>
+      <c r="P389" t="inlineStr"/>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr"/>
@@ -23376,6 +24957,11 @@
           <t>PLA2G6</t>
         </is>
       </c>
+      <c r="P390" t="inlineStr">
+        <is>
+          <t>TH,GBAP1,IP6K2,GAK,CTSB,BIN3,UBAP2,GBF1,IGSF9B,SETD1A,UBTF</t>
+        </is>
+      </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr"/>
@@ -23439,6 +25025,11 @@
           <t>PLA2G6</t>
         </is>
       </c>
+      <c r="P391" t="inlineStr">
+        <is>
+          <t>TUBB4A,IP6K2</t>
+        </is>
+      </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr"/>
@@ -23502,6 +25093,11 @@
           <t>PLA2G6</t>
         </is>
       </c>
+      <c r="P392" t="inlineStr">
+        <is>
+          <t>TUBB4A,UBAP2,GBF1,SPPL2B</t>
+        </is>
+      </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr"/>
@@ -23557,6 +25153,7 @@
       </c>
       <c r="N393" t="inlineStr"/>
       <c r="O393" t="inlineStr"/>
+      <c r="P393" t="inlineStr"/>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr"/>
@@ -23612,6 +25209,7 @@
       </c>
       <c r="N394" t="inlineStr"/>
       <c r="O394" t="inlineStr"/>
+      <c r="P394" t="inlineStr"/>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr"/>
@@ -23675,6 +25273,7 @@
           <t>PMVK</t>
         </is>
       </c>
+      <c r="P395" t="inlineStr"/>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr"/>
@@ -23738,6 +25337,7 @@
           <t>PMVK</t>
         </is>
       </c>
+      <c r="P396" t="inlineStr"/>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr"/>
@@ -23801,6 +25401,11 @@
           <t>PMVK</t>
         </is>
       </c>
+      <c r="P397" t="inlineStr">
+        <is>
+          <t>KCNIP3</t>
+        </is>
+      </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr"/>
@@ -23864,6 +25469,11 @@
           <t>PMVK</t>
         </is>
       </c>
+      <c r="P398" t="inlineStr">
+        <is>
+          <t>RPS12</t>
+        </is>
+      </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr"/>
@@ -23927,6 +25537,11 @@
           <t>PMVK</t>
         </is>
       </c>
+      <c r="P399" t="inlineStr">
+        <is>
+          <t>RPS12</t>
+        </is>
+      </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr"/>
@@ -23982,6 +25597,7 @@
       </c>
       <c r="N400" t="inlineStr"/>
       <c r="O400" t="inlineStr"/>
+      <c r="P400" t="inlineStr"/>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr"/>
@@ -24041,6 +25657,11 @@
         </is>
       </c>
       <c r="O401" t="inlineStr"/>
+      <c r="P401" t="inlineStr">
+        <is>
+          <t>PRKRA,FAM49B</t>
+        </is>
+      </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr"/>
@@ -24100,6 +25721,11 @@
         </is>
       </c>
       <c r="O402" t="inlineStr"/>
+      <c r="P402" t="inlineStr">
+        <is>
+          <t>PRKRA,KPNA1,MIPOL1</t>
+        </is>
+      </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr"/>
@@ -24159,6 +25785,11 @@
         </is>
       </c>
       <c r="O403" t="inlineStr"/>
+      <c r="P403" t="inlineStr">
+        <is>
+          <t>PRKRA,MCCC1,CAB39L</t>
+        </is>
+      </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr"/>
@@ -24222,6 +25853,11 @@
           <t>CRLS1</t>
         </is>
       </c>
+      <c r="P404" t="inlineStr">
+        <is>
+          <t>PRKRA,MCCC1</t>
+        </is>
+      </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr"/>
@@ -24285,6 +25921,11 @@
           <t>CRLS1</t>
         </is>
       </c>
+      <c r="P405" t="inlineStr">
+        <is>
+          <t>PRKRA,MCCC1,FYN</t>
+        </is>
+      </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr"/>
@@ -24344,6 +25985,11 @@
         </is>
       </c>
       <c r="O406" t="inlineStr"/>
+      <c r="P406" t="inlineStr">
+        <is>
+          <t>PRKRA,VAMP4,INPP5F</t>
+        </is>
+      </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr"/>
@@ -24403,6 +26049,11 @@
         </is>
       </c>
       <c r="O407" t="inlineStr"/>
+      <c r="P407" t="inlineStr">
+        <is>
+          <t>PRKRA,VPS35,VAMP4,KPNA1,MCCC1,CLCN3,MBNL2</t>
+        </is>
+      </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr"/>
@@ -24458,6 +26109,7 @@
       </c>
       <c r="N408" t="inlineStr"/>
       <c r="O408" t="inlineStr"/>
+      <c r="P408" t="inlineStr"/>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr"/>
@@ -24517,6 +26169,11 @@
         </is>
       </c>
       <c r="O409" t="inlineStr"/>
+      <c r="P409" t="inlineStr">
+        <is>
+          <t>RAB32</t>
+        </is>
+      </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr"/>
@@ -24576,6 +26233,11 @@
         </is>
       </c>
       <c r="O410" t="inlineStr"/>
+      <c r="P410" t="inlineStr">
+        <is>
+          <t>RIMS1,DLG2,FBRSL1</t>
+        </is>
+      </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr"/>
@@ -24635,6 +26297,11 @@
         </is>
       </c>
       <c r="O411" t="inlineStr"/>
+      <c r="P411" t="inlineStr">
+        <is>
+          <t>RIMS1</t>
+        </is>
+      </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr"/>
@@ -24694,6 +26361,11 @@
         </is>
       </c>
       <c r="O412" t="inlineStr"/>
+      <c r="P412" t="inlineStr">
+        <is>
+          <t>RIT2</t>
+        </is>
+      </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr"/>
@@ -24753,6 +26425,11 @@
         </is>
       </c>
       <c r="O413" t="inlineStr"/>
+      <c r="P413" t="inlineStr">
+        <is>
+          <t>RNF141</t>
+        </is>
+      </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr"/>
@@ -24808,6 +26485,7 @@
       </c>
       <c r="N414" t="inlineStr"/>
       <c r="O414" t="inlineStr"/>
+      <c r="P414" t="inlineStr"/>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr"/>
@@ -24863,6 +26541,11 @@
         </is>
       </c>
       <c r="O415" t="inlineStr"/>
+      <c r="P415" t="inlineStr">
+        <is>
+          <t>RPS12</t>
+        </is>
+      </c>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr"/>
@@ -24922,6 +26605,11 @@
         </is>
       </c>
       <c r="O416" t="inlineStr"/>
+      <c r="P416" t="inlineStr">
+        <is>
+          <t>RPS12</t>
+        </is>
+      </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr"/>
@@ -24981,6 +26669,11 @@
         </is>
       </c>
       <c r="O417" t="inlineStr"/>
+      <c r="P417" t="inlineStr">
+        <is>
+          <t>RPS12</t>
+        </is>
+      </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr"/>
@@ -25040,6 +26733,11 @@
         </is>
       </c>
       <c r="O418" t="inlineStr"/>
+      <c r="P418" t="inlineStr">
+        <is>
+          <t>RPS12</t>
+        </is>
+      </c>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr"/>
@@ -25095,6 +26793,7 @@
       </c>
       <c r="N419" t="inlineStr"/>
       <c r="O419" t="inlineStr"/>
+      <c r="P419" t="inlineStr"/>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr"/>
@@ -25150,6 +26849,7 @@
       </c>
       <c r="N420" t="inlineStr"/>
       <c r="O420" t="inlineStr"/>
+      <c r="P420" t="inlineStr"/>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr"/>
@@ -25209,6 +26909,11 @@
         </is>
       </c>
       <c r="O421" t="inlineStr"/>
+      <c r="P421" t="inlineStr">
+        <is>
+          <t>SATB1,CAMK2D,ASXL3</t>
+        </is>
+      </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr"/>
@@ -25268,6 +26973,11 @@
         </is>
       </c>
       <c r="O422" t="inlineStr"/>
+      <c r="P422" t="inlineStr">
+        <is>
+          <t>SATB1</t>
+        </is>
+      </c>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr"/>
@@ -25331,6 +27041,11 @@
           <t>GALC</t>
         </is>
       </c>
+      <c r="P423" t="inlineStr">
+        <is>
+          <t>SATB1,STK39,SCARB2,RNF141,VPS13C</t>
+        </is>
+      </c>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr"/>
@@ -25390,6 +27105,11 @@
         </is>
       </c>
       <c r="O424" t="inlineStr"/>
+      <c r="P424" t="inlineStr">
+        <is>
+          <t>SCAF11</t>
+        </is>
+      </c>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr"/>
@@ -25445,6 +27165,7 @@
       </c>
       <c r="N425" t="inlineStr"/>
       <c r="O425" t="inlineStr"/>
+      <c r="P425" t="inlineStr"/>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr"/>
@@ -25500,6 +27221,7 @@
       </c>
       <c r="N426" t="inlineStr"/>
       <c r="O426" t="inlineStr"/>
+      <c r="P426" t="inlineStr"/>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr"/>
@@ -25559,6 +27281,11 @@
         </is>
       </c>
       <c r="O427" t="inlineStr"/>
+      <c r="P427" t="inlineStr">
+        <is>
+          <t>SETD1A</t>
+        </is>
+      </c>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr"/>
@@ -25618,6 +27345,11 @@
         </is>
       </c>
       <c r="O428" t="inlineStr"/>
+      <c r="P428" t="inlineStr">
+        <is>
+          <t>SETD1A</t>
+        </is>
+      </c>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr"/>
@@ -25673,6 +27405,7 @@
       </c>
       <c r="N429" t="inlineStr"/>
       <c r="O429" t="inlineStr"/>
+      <c r="P429" t="inlineStr"/>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr"/>
@@ -25728,6 +27461,7 @@
       </c>
       <c r="N430" t="inlineStr"/>
       <c r="O430" t="inlineStr"/>
+      <c r="P430" t="inlineStr"/>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr"/>
@@ -25783,6 +27517,7 @@
       </c>
       <c r="N431" t="inlineStr"/>
       <c r="O431" t="inlineStr"/>
+      <c r="P431" t="inlineStr"/>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr"/>
@@ -25842,6 +27577,11 @@
         </is>
       </c>
       <c r="O432" t="inlineStr"/>
+      <c r="P432" t="inlineStr">
+        <is>
+          <t>SIPA1L2,ASXL3</t>
+        </is>
+      </c>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr"/>
@@ -25901,6 +27641,11 @@
         </is>
       </c>
       <c r="O433" t="inlineStr"/>
+      <c r="P433" t="inlineStr">
+        <is>
+          <t>SIPA1L2,BAG3</t>
+        </is>
+      </c>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr"/>
@@ -25960,6 +27705,11 @@
         </is>
       </c>
       <c r="O434" t="inlineStr"/>
+      <c r="P434" t="inlineStr">
+        <is>
+          <t>SIPA1L2</t>
+        </is>
+      </c>
     </row>
     <row r="435">
       <c r="A435" t="inlineStr"/>
@@ -26019,6 +27769,11 @@
         </is>
       </c>
       <c r="O435" t="inlineStr"/>
+      <c r="P435" t="inlineStr">
+        <is>
+          <t>SIPA1L2</t>
+        </is>
+      </c>
     </row>
     <row r="436">
       <c r="A436" t="inlineStr"/>
@@ -26078,6 +27833,11 @@
         </is>
       </c>
       <c r="O436" t="inlineStr"/>
+      <c r="P436" t="inlineStr">
+        <is>
+          <t>SIPA1L2,MED12L,DYRK1A</t>
+        </is>
+      </c>
     </row>
     <row r="437">
       <c r="A437" t="inlineStr"/>
@@ -26137,6 +27897,11 @@
         </is>
       </c>
       <c r="O437" t="inlineStr"/>
+      <c r="P437" t="inlineStr">
+        <is>
+          <t>SIPA1L2</t>
+        </is>
+      </c>
     </row>
     <row r="438">
       <c r="A438" t="inlineStr"/>
@@ -26192,6 +27957,7 @@
       </c>
       <c r="N438" t="inlineStr"/>
       <c r="O438" t="inlineStr"/>
+      <c r="P438" t="inlineStr"/>
     </row>
     <row r="439">
       <c r="A439" t="inlineStr"/>
@@ -26251,6 +28017,11 @@
         </is>
       </c>
       <c r="O439" t="inlineStr"/>
+      <c r="P439" t="inlineStr">
+        <is>
+          <t>SLC30A10</t>
+        </is>
+      </c>
     </row>
     <row r="440">
       <c r="A440" t="inlineStr"/>
@@ -26310,6 +28081,11 @@
         </is>
       </c>
       <c r="O440" t="inlineStr"/>
+      <c r="P440" t="inlineStr">
+        <is>
+          <t>SLC30A10</t>
+        </is>
+      </c>
     </row>
     <row r="441">
       <c r="A441" t="inlineStr"/>
@@ -26369,6 +28145,11 @@
         </is>
       </c>
       <c r="O441" t="inlineStr"/>
+      <c r="P441" t="inlineStr">
+        <is>
+          <t>SLC30A10,KCNS3</t>
+        </is>
+      </c>
     </row>
     <row r="442">
       <c r="A442" t="inlineStr"/>
@@ -26428,6 +28209,11 @@
         </is>
       </c>
       <c r="O442" t="inlineStr"/>
+      <c r="P442" t="inlineStr">
+        <is>
+          <t>SLC30A10,KCNS3,ITGA8</t>
+        </is>
+      </c>
     </row>
     <row r="443">
       <c r="A443" t="inlineStr"/>
@@ -26487,6 +28273,11 @@
         </is>
       </c>
       <c r="O443" t="inlineStr"/>
+      <c r="P443" t="inlineStr">
+        <is>
+          <t>SLC30A10</t>
+        </is>
+      </c>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr"/>
@@ -26546,6 +28337,11 @@
         </is>
       </c>
       <c r="O444" t="inlineStr"/>
+      <c r="P444" t="inlineStr">
+        <is>
+          <t>SLC30A10,LINC00693,GPNMB,HIP1R,CHRNB1</t>
+        </is>
+      </c>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr"/>
@@ -26605,6 +28401,11 @@
         </is>
       </c>
       <c r="O445" t="inlineStr"/>
+      <c r="P445" t="inlineStr">
+        <is>
+          <t>SLC30A10</t>
+        </is>
+      </c>
     </row>
     <row r="446">
       <c r="A446" t="inlineStr"/>
@@ -26664,6 +28465,11 @@
         </is>
       </c>
       <c r="O446" t="inlineStr"/>
+      <c r="P446" t="inlineStr">
+        <is>
+          <t>SLC30A10,NUCKS1,MED12L,SCAF11,DYRK1A</t>
+        </is>
+      </c>
     </row>
     <row r="447">
       <c r="A447" t="inlineStr"/>
@@ -26723,6 +28529,11 @@
         </is>
       </c>
       <c r="O447" t="inlineStr"/>
+      <c r="P447" t="inlineStr">
+        <is>
+          <t>SLC30A10</t>
+        </is>
+      </c>
     </row>
     <row r="448">
       <c r="A448" t="inlineStr"/>
@@ -26782,6 +28593,11 @@
         </is>
       </c>
       <c r="O448" t="inlineStr"/>
+      <c r="P448" t="inlineStr">
+        <is>
+          <t>SLC30A10,SATB1,MED12L,DYRK1A</t>
+        </is>
+      </c>
     </row>
     <row r="449">
       <c r="A449" t="inlineStr"/>
@@ -26841,6 +28657,11 @@
         </is>
       </c>
       <c r="O449" t="inlineStr"/>
+      <c r="P449" t="inlineStr">
+        <is>
+          <t>SLC30A10,SIPA1L2,WNT3</t>
+        </is>
+      </c>
     </row>
     <row r="450">
       <c r="A450" t="inlineStr"/>
@@ -26896,6 +28717,11 @@
         </is>
       </c>
       <c r="O450" t="inlineStr"/>
+      <c r="P450" t="inlineStr">
+        <is>
+          <t>SLC39A14</t>
+        </is>
+      </c>
     </row>
     <row r="451">
       <c r="A451" t="inlineStr"/>
@@ -26955,6 +28781,11 @@
         </is>
       </c>
       <c r="O451" t="inlineStr"/>
+      <c r="P451" t="inlineStr">
+        <is>
+          <t>SLC39A14,FAM47E-STBD1,BAG3,RAB32</t>
+        </is>
+      </c>
     </row>
     <row r="452">
       <c r="A452" t="inlineStr"/>
@@ -27014,6 +28845,11 @@
         </is>
       </c>
       <c r="O452" t="inlineStr"/>
+      <c r="P452" t="inlineStr">
+        <is>
+          <t>SLC39A14,FCGR2A,BAG3,IGSF9B</t>
+        </is>
+      </c>
     </row>
     <row r="453">
       <c r="A453" t="inlineStr"/>
@@ -27077,6 +28913,11 @@
           <t>PMVK</t>
         </is>
       </c>
+      <c r="P453" t="inlineStr">
+        <is>
+          <t>SLC39A14</t>
+        </is>
+      </c>
     </row>
     <row r="454">
       <c r="A454" t="inlineStr"/>
@@ -27136,6 +28977,11 @@
         </is>
       </c>
       <c r="O454" t="inlineStr"/>
+      <c r="P454" t="inlineStr">
+        <is>
+          <t>SLC39A14,SIPA1L2,HLA-DRB5,BAG3</t>
+        </is>
+      </c>
     </row>
     <row r="455">
       <c r="A455" t="inlineStr"/>
@@ -27195,6 +29041,11 @@
         </is>
       </c>
       <c r="O455" t="inlineStr"/>
+      <c r="P455" t="inlineStr">
+        <is>
+          <t>SNCA,SH3GL2</t>
+        </is>
+      </c>
     </row>
     <row r="456">
       <c r="A456" t="inlineStr"/>
@@ -27254,6 +29105,11 @@
         </is>
       </c>
       <c r="O456" t="inlineStr"/>
+      <c r="P456" t="inlineStr">
+        <is>
+          <t>SPG11,DYRK1A</t>
+        </is>
+      </c>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr"/>
@@ -27313,6 +29169,11 @@
         </is>
       </c>
       <c r="O457" t="inlineStr"/>
+      <c r="P457" t="inlineStr">
+        <is>
+          <t>SPG11,ITGA8</t>
+        </is>
+      </c>
     </row>
     <row r="458">
       <c r="A458" t="inlineStr"/>
@@ -27376,6 +29237,11 @@
           <t>GALC</t>
         </is>
       </c>
+      <c r="P458" t="inlineStr">
+        <is>
+          <t>SPG11,LCORL,SCAF11,VPS13C</t>
+        </is>
+      </c>
     </row>
     <row r="459">
       <c r="A459" t="inlineStr"/>
@@ -27439,6 +29305,11 @@
           <t>CHD9</t>
         </is>
       </c>
+      <c r="P459" t="inlineStr">
+        <is>
+          <t>SPG11,LCORL,SCAF11,VPS13C</t>
+        </is>
+      </c>
     </row>
     <row r="460">
       <c r="A460" t="inlineStr"/>
@@ -27502,6 +29373,11 @@
           <t>GALC</t>
         </is>
       </c>
+      <c r="P460" t="inlineStr">
+        <is>
+          <t>SPG11,LINC00693,LCORL,RNF141,SCAF11</t>
+        </is>
+      </c>
     </row>
     <row r="461">
       <c r="A461" t="inlineStr"/>
@@ -27561,6 +29437,11 @@
         </is>
       </c>
       <c r="O461" t="inlineStr"/>
+      <c r="P461" t="inlineStr">
+        <is>
+          <t>SPG11</t>
+        </is>
+      </c>
     </row>
     <row r="462">
       <c r="A462" t="inlineStr"/>
@@ -27620,6 +29501,11 @@
         </is>
       </c>
       <c r="O462" t="inlineStr"/>
+      <c r="P462" t="inlineStr">
+        <is>
+          <t>SPG11,NUCKS1,SATB1,SIPA1L2,MED12L,DYRK1A</t>
+        </is>
+      </c>
     </row>
     <row r="463">
       <c r="A463" t="inlineStr"/>
@@ -27679,6 +29565,11 @@
         </is>
       </c>
       <c r="O463" t="inlineStr"/>
+      <c r="P463" t="inlineStr">
+        <is>
+          <t>SPG11,SLC39A14,NUCKS1,SIPA1L2,MED12L,MCCC1,CTSB,BIN3,UBAP2,IGSF9B,DYRK1A,PSMF1</t>
+        </is>
+      </c>
     </row>
     <row r="464">
       <c r="A464" t="inlineStr"/>
@@ -27738,6 +29629,11 @@
         </is>
       </c>
       <c r="O464" t="inlineStr"/>
+      <c r="P464" t="inlineStr">
+        <is>
+          <t>SPG11,SPPL2B</t>
+        </is>
+      </c>
     </row>
     <row r="465">
       <c r="A465" t="inlineStr"/>
@@ -27797,6 +29693,11 @@
         </is>
       </c>
       <c r="O465" t="inlineStr"/>
+      <c r="P465" t="inlineStr">
+        <is>
+          <t>SPG11,SPTSSB</t>
+        </is>
+      </c>
     </row>
     <row r="466">
       <c r="A466" t="inlineStr"/>
@@ -27856,6 +29757,11 @@
         </is>
       </c>
       <c r="O466" t="inlineStr"/>
+      <c r="P466" t="inlineStr">
+        <is>
+          <t>SPG11,UBAP2,SPPL2B</t>
+        </is>
+      </c>
     </row>
     <row r="467">
       <c r="A467" t="inlineStr"/>
@@ -27911,6 +29817,7 @@
       </c>
       <c r="N467" t="inlineStr"/>
       <c r="O467" t="inlineStr"/>
+      <c r="P467" t="inlineStr"/>
     </row>
     <row r="468">
       <c r="A468" t="inlineStr"/>
@@ -27970,6 +29877,11 @@
         </is>
       </c>
       <c r="O468" t="inlineStr"/>
+      <c r="P468" t="inlineStr">
+        <is>
+          <t>SPPL2B</t>
+        </is>
+      </c>
     </row>
     <row r="469">
       <c r="A469" t="inlineStr"/>
@@ -28029,6 +29941,11 @@
         </is>
       </c>
       <c r="O469" t="inlineStr"/>
+      <c r="P469" t="inlineStr">
+        <is>
+          <t>SPPL2B</t>
+        </is>
+      </c>
     </row>
     <row r="470">
       <c r="A470" t="inlineStr"/>
@@ -28088,6 +30005,11 @@
         </is>
       </c>
       <c r="O470" t="inlineStr"/>
+      <c r="P470" t="inlineStr">
+        <is>
+          <t>SPPL2B</t>
+        </is>
+      </c>
     </row>
     <row r="471">
       <c r="A471" t="inlineStr"/>
@@ -28147,6 +30069,11 @@
         </is>
       </c>
       <c r="O471" t="inlineStr"/>
+      <c r="P471" t="inlineStr">
+        <is>
+          <t>SPPL2B</t>
+        </is>
+      </c>
     </row>
     <row r="472">
       <c r="A472" t="inlineStr"/>
@@ -28206,6 +30133,11 @@
         </is>
       </c>
       <c r="O472" t="inlineStr"/>
+      <c r="P472" t="inlineStr">
+        <is>
+          <t>SPR</t>
+        </is>
+      </c>
     </row>
     <row r="473">
       <c r="A473" t="inlineStr"/>
@@ -28265,6 +30197,11 @@
         </is>
       </c>
       <c r="O473" t="inlineStr"/>
+      <c r="P473" t="inlineStr">
+        <is>
+          <t>SPR,BAG3,IGSF9B</t>
+        </is>
+      </c>
     </row>
     <row r="474">
       <c r="A474" t="inlineStr"/>
@@ -28324,6 +30261,11 @@
         </is>
       </c>
       <c r="O474" t="inlineStr"/>
+      <c r="P474" t="inlineStr">
+        <is>
+          <t>SPR,BAG3</t>
+        </is>
+      </c>
     </row>
     <row r="475">
       <c r="A475" t="inlineStr"/>
@@ -28383,6 +30325,11 @@
         </is>
       </c>
       <c r="O475" t="inlineStr"/>
+      <c r="P475" t="inlineStr">
+        <is>
+          <t>SPR</t>
+        </is>
+      </c>
     </row>
     <row r="476">
       <c r="A476" t="inlineStr"/>
@@ -28442,6 +30389,11 @@
         </is>
       </c>
       <c r="O476" t="inlineStr"/>
+      <c r="P476" t="inlineStr">
+        <is>
+          <t>SPR</t>
+        </is>
+      </c>
     </row>
     <row r="477">
       <c r="A477" t="inlineStr"/>
@@ -28501,6 +30453,11 @@
         </is>
       </c>
       <c r="O477" t="inlineStr"/>
+      <c r="P477" t="inlineStr">
+        <is>
+          <t>SPR</t>
+        </is>
+      </c>
     </row>
     <row r="478">
       <c r="A478" t="inlineStr"/>
@@ -28560,6 +30517,11 @@
         </is>
       </c>
       <c r="O478" t="inlineStr"/>
+      <c r="P478" t="inlineStr">
+        <is>
+          <t>SPR</t>
+        </is>
+      </c>
     </row>
     <row r="479">
       <c r="A479" t="inlineStr"/>
@@ -28623,6 +30585,11 @@
           <t>PMVK</t>
         </is>
       </c>
+      <c r="P479" t="inlineStr">
+        <is>
+          <t>SPR,FAM47E-STBD1,HLA-DRB5,CHRNB1</t>
+        </is>
+      </c>
     </row>
     <row r="480">
       <c r="A480" t="inlineStr"/>
@@ -28682,6 +30649,11 @@
         </is>
       </c>
       <c r="O480" t="inlineStr"/>
+      <c r="P480" t="inlineStr">
+        <is>
+          <t>SPR</t>
+        </is>
+      </c>
     </row>
     <row r="481">
       <c r="A481" t="inlineStr"/>
@@ -28741,6 +30713,11 @@
         </is>
       </c>
       <c r="O481" t="inlineStr"/>
+      <c r="P481" t="inlineStr">
+        <is>
+          <t>SPR,SIPA1L2</t>
+        </is>
+      </c>
     </row>
     <row r="482">
       <c r="A482" t="inlineStr"/>
@@ -28796,6 +30773,7 @@
       </c>
       <c r="N482" t="inlineStr"/>
       <c r="O482" t="inlineStr"/>
+      <c r="P482" t="inlineStr"/>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr"/>
@@ -28851,6 +30829,7 @@
       </c>
       <c r="N483" t="inlineStr"/>
       <c r="O483" t="inlineStr"/>
+      <c r="P483" t="inlineStr"/>
     </row>
     <row r="484">
       <c r="A484" t="inlineStr"/>
@@ -28910,6 +30889,11 @@
         </is>
       </c>
       <c r="O484" t="inlineStr"/>
+      <c r="P484" t="inlineStr">
+        <is>
+          <t>STK39,BST1,SCARB2,RNF141</t>
+        </is>
+      </c>
     </row>
     <row r="485">
       <c r="A485" t="inlineStr"/>
@@ -28973,6 +30957,11 @@
           <t>GALC,CHD9</t>
         </is>
       </c>
+      <c r="P485" t="inlineStr">
+        <is>
+          <t>STK39,LCORL,SCARB2,RNF141,VPS13C,ASXL3</t>
+        </is>
+      </c>
     </row>
     <row r="486">
       <c r="A486" t="inlineStr"/>
@@ -29032,6 +31021,11 @@
         </is>
       </c>
       <c r="O486" t="inlineStr"/>
+      <c r="P486" t="inlineStr">
+        <is>
+          <t>STK39,MAP4K4</t>
+        </is>
+      </c>
     </row>
     <row r="487">
       <c r="A487" t="inlineStr"/>
@@ -29091,6 +31085,11 @@
         </is>
       </c>
       <c r="O487" t="inlineStr"/>
+      <c r="P487" t="inlineStr">
+        <is>
+          <t>STK39,SCARB2,GS1-124K5.11,MBNL2,DNAH17</t>
+        </is>
+      </c>
     </row>
     <row r="488">
       <c r="A488" t="inlineStr"/>
@@ -29150,6 +31149,11 @@
         </is>
       </c>
       <c r="O488" t="inlineStr"/>
+      <c r="P488" t="inlineStr">
+        <is>
+          <t>STK39,SCARB2,RNF141</t>
+        </is>
+      </c>
     </row>
     <row r="489">
       <c r="A489" t="inlineStr"/>
@@ -29213,6 +31217,11 @@
           <t>CRLS1</t>
         </is>
       </c>
+      <c r="P489" t="inlineStr">
+        <is>
+          <t>STK39,SPTSSB</t>
+        </is>
+      </c>
     </row>
     <row r="490">
       <c r="A490" t="inlineStr"/>
@@ -29276,6 +31285,11 @@
           <t>SYNJ1</t>
         </is>
       </c>
+      <c r="P490" t="inlineStr">
+        <is>
+          <t>PAM,SH3GL2,DLG2,RIT2</t>
+        </is>
+      </c>
     </row>
     <row r="491">
       <c r="A491" t="inlineStr"/>
@@ -29339,6 +31353,11 @@
           <t>SYNJ1</t>
         </is>
       </c>
+      <c r="P491" t="inlineStr">
+        <is>
+          <t>SCAF11,DYRK1A</t>
+        </is>
+      </c>
     </row>
     <row r="492">
       <c r="A492" t="inlineStr"/>
@@ -29402,6 +31421,11 @@
           <t>SYNJ1</t>
         </is>
       </c>
+      <c r="P492" t="inlineStr">
+        <is>
+          <t>VPS13A,PAM,CAMK2D,SNCA,INPP5F,DLG2,WNT3,RIT2</t>
+        </is>
+      </c>
     </row>
     <row r="493">
       <c r="A493" t="inlineStr"/>
@@ -29461,6 +31485,11 @@
         </is>
       </c>
       <c r="O493" t="inlineStr"/>
+      <c r="P493" t="inlineStr">
+        <is>
+          <t>SYT17</t>
+        </is>
+      </c>
     </row>
     <row r="494">
       <c r="A494" t="inlineStr"/>
@@ -29520,6 +31549,11 @@
         </is>
       </c>
       <c r="O494" t="inlineStr"/>
+      <c r="P494" t="inlineStr">
+        <is>
+          <t>SYT17</t>
+        </is>
+      </c>
     </row>
     <row r="495">
       <c r="A495" t="inlineStr"/>
@@ -29579,6 +31613,11 @@
         </is>
       </c>
       <c r="O495" t="inlineStr"/>
+      <c r="P495" t="inlineStr">
+        <is>
+          <t>TH,ITGA8</t>
+        </is>
+      </c>
     </row>
     <row r="496">
       <c r="A496" t="inlineStr"/>
@@ -29638,6 +31677,11 @@
         </is>
       </c>
       <c r="O496" t="inlineStr"/>
+      <c r="P496" t="inlineStr">
+        <is>
+          <t>TH</t>
+        </is>
+      </c>
     </row>
     <row r="497">
       <c r="A497" t="inlineStr"/>
@@ -29697,6 +31741,11 @@
         </is>
       </c>
       <c r="O497" t="inlineStr"/>
+      <c r="P497" t="inlineStr">
+        <is>
+          <t>TH,TMEM163,KCNIP3,WNT3,RIT2</t>
+        </is>
+      </c>
     </row>
     <row r="498">
       <c r="A498" t="inlineStr"/>
@@ -29752,6 +31801,7 @@
       </c>
       <c r="N498" t="inlineStr"/>
       <c r="O498" t="inlineStr"/>
+      <c r="P498" t="inlineStr"/>
     </row>
     <row r="499">
       <c r="A499" t="inlineStr"/>
@@ -29807,6 +31857,7 @@
       </c>
       <c r="N499" t="inlineStr"/>
       <c r="O499" t="inlineStr"/>
+      <c r="P499" t="inlineStr"/>
     </row>
     <row r="500">
       <c r="A500" t="inlineStr"/>
@@ -29866,6 +31917,11 @@
         </is>
       </c>
       <c r="O500" t="inlineStr"/>
+      <c r="P500" t="inlineStr">
+        <is>
+          <t>TMEM163</t>
+        </is>
+      </c>
     </row>
     <row r="501">
       <c r="A501" t="inlineStr"/>
@@ -29925,6 +31981,11 @@
         </is>
       </c>
       <c r="O501" t="inlineStr"/>
+      <c r="P501" t="inlineStr">
+        <is>
+          <t>TMEM163</t>
+        </is>
+      </c>
     </row>
     <row r="502">
       <c r="A502" t="inlineStr"/>
@@ -29984,6 +32045,11 @@
         </is>
       </c>
       <c r="O502" t="inlineStr"/>
+      <c r="P502" t="inlineStr">
+        <is>
+          <t>TMEM163</t>
+        </is>
+      </c>
     </row>
     <row r="503">
       <c r="A503" t="inlineStr"/>
@@ -30043,6 +32109,11 @@
         </is>
       </c>
       <c r="O503" t="inlineStr"/>
+      <c r="P503" t="inlineStr">
+        <is>
+          <t>TMEM163</t>
+        </is>
+      </c>
     </row>
     <row r="504">
       <c r="A504" t="inlineStr"/>
@@ -30102,6 +32173,11 @@
         </is>
       </c>
       <c r="O504" t="inlineStr"/>
+      <c r="P504" t="inlineStr">
+        <is>
+          <t>TMEM163,FAM47E,HLA-DRB5,ITGA8</t>
+        </is>
+      </c>
     </row>
     <row r="505">
       <c r="A505" t="inlineStr"/>
@@ -30161,6 +32237,11 @@
         </is>
       </c>
       <c r="O505" t="inlineStr"/>
+      <c r="P505" t="inlineStr">
+        <is>
+          <t>TMEM163,GS1-124K5.11,NOD2,UBTF</t>
+        </is>
+      </c>
     </row>
     <row r="506">
       <c r="A506" t="inlineStr"/>
@@ -30220,6 +32301,11 @@
         </is>
       </c>
       <c r="O506" t="inlineStr"/>
+      <c r="P506" t="inlineStr">
+        <is>
+          <t>TMEM163,SPTSSB,INPP5F</t>
+        </is>
+      </c>
     </row>
     <row r="507">
       <c r="A507" t="inlineStr"/>
@@ -30279,6 +32365,11 @@
         </is>
       </c>
       <c r="O507" t="inlineStr"/>
+      <c r="P507" t="inlineStr">
+        <is>
+          <t>TMEM175</t>
+        </is>
+      </c>
     </row>
     <row r="508">
       <c r="A508" t="inlineStr"/>
@@ -30338,6 +32429,11 @@
         </is>
       </c>
       <c r="O508" t="inlineStr"/>
+      <c r="P508" t="inlineStr">
+        <is>
+          <t>TMEM175,FBRSL1</t>
+        </is>
+      </c>
     </row>
     <row r="509">
       <c r="A509" t="inlineStr"/>
@@ -30397,6 +32493,11 @@
         </is>
       </c>
       <c r="O509" t="inlineStr"/>
+      <c r="P509" t="inlineStr">
+        <is>
+          <t>TMEM175,GS1-124K5.11,SPPL2B</t>
+        </is>
+      </c>
     </row>
     <row r="510">
       <c r="A510" t="inlineStr"/>
@@ -30456,6 +32557,11 @@
         </is>
       </c>
       <c r="O510" t="inlineStr"/>
+      <c r="P510" t="inlineStr">
+        <is>
+          <t>TMEM175</t>
+        </is>
+      </c>
     </row>
     <row r="511">
       <c r="A511" t="inlineStr"/>
@@ -30511,6 +32617,7 @@
       </c>
       <c r="N511" t="inlineStr"/>
       <c r="O511" t="inlineStr"/>
+      <c r="P511" t="inlineStr"/>
     </row>
     <row r="512">
       <c r="A512" t="inlineStr"/>
@@ -30566,6 +32673,11 @@
         </is>
       </c>
       <c r="O512" t="inlineStr"/>
+      <c r="P512" t="inlineStr">
+        <is>
+          <t>TUBB4A</t>
+        </is>
+      </c>
     </row>
     <row r="513">
       <c r="A513" t="inlineStr"/>
@@ -30625,6 +32737,11 @@
         </is>
       </c>
       <c r="O513" t="inlineStr"/>
+      <c r="P513" t="inlineStr">
+        <is>
+          <t>TUBB4A,LINC00693,PAM,FYN</t>
+        </is>
+      </c>
     </row>
     <row r="514">
       <c r="A514" t="inlineStr"/>
@@ -30684,6 +32801,11 @@
         </is>
       </c>
       <c r="O514" t="inlineStr"/>
+      <c r="P514" t="inlineStr">
+        <is>
+          <t>TUBB4A</t>
+        </is>
+      </c>
     </row>
     <row r="515">
       <c r="A515" t="inlineStr"/>
@@ -30743,6 +32865,11 @@
         </is>
       </c>
       <c r="O515" t="inlineStr"/>
+      <c r="P515" t="inlineStr">
+        <is>
+          <t>UBAP2,GBF1</t>
+        </is>
+      </c>
     </row>
     <row r="516">
       <c r="A516" t="inlineStr"/>
@@ -30802,6 +32929,11 @@
         </is>
       </c>
       <c r="O516" t="inlineStr"/>
+      <c r="P516" t="inlineStr">
+        <is>
+          <t>UBAP2</t>
+        </is>
+      </c>
     </row>
     <row r="517">
       <c r="A517" t="inlineStr"/>
@@ -30861,6 +32993,11 @@
         </is>
       </c>
       <c r="O517" t="inlineStr"/>
+      <c r="P517" t="inlineStr">
+        <is>
+          <t>UBAP2</t>
+        </is>
+      </c>
     </row>
     <row r="518">
       <c r="A518" t="inlineStr"/>
@@ -30920,6 +33057,11 @@
         </is>
       </c>
       <c r="O518" t="inlineStr"/>
+      <c r="P518" t="inlineStr">
+        <is>
+          <t>UBAP2</t>
+        </is>
+      </c>
     </row>
     <row r="519">
       <c r="A519" t="inlineStr"/>
@@ -30979,6 +33121,11 @@
         </is>
       </c>
       <c r="O519" t="inlineStr"/>
+      <c r="P519" t="inlineStr">
+        <is>
+          <t>UBAP2,PSMF1</t>
+        </is>
+      </c>
     </row>
     <row r="520">
       <c r="A520" t="inlineStr"/>
@@ -31038,6 +33185,11 @@
         </is>
       </c>
       <c r="O520" t="inlineStr"/>
+      <c r="P520" t="inlineStr">
+        <is>
+          <t>VAMP4,FAM47E,ASXL3</t>
+        </is>
+      </c>
     </row>
     <row r="521">
       <c r="A521" t="inlineStr"/>
@@ -31097,6 +33249,11 @@
         </is>
       </c>
       <c r="O521" t="inlineStr"/>
+      <c r="P521" t="inlineStr">
+        <is>
+          <t>VAMP4</t>
+        </is>
+      </c>
     </row>
     <row r="522">
       <c r="A522" t="inlineStr"/>
@@ -31156,6 +33313,11 @@
         </is>
       </c>
       <c r="O522" t="inlineStr"/>
+      <c r="P522" t="inlineStr">
+        <is>
+          <t>VPS13A</t>
+        </is>
+      </c>
     </row>
     <row r="523">
       <c r="A523" t="inlineStr"/>
@@ -31215,6 +33377,11 @@
         </is>
       </c>
       <c r="O523" t="inlineStr"/>
+      <c r="P523" t="inlineStr">
+        <is>
+          <t>VPS13A,IGSF9B</t>
+        </is>
+      </c>
     </row>
     <row r="524">
       <c r="A524" t="inlineStr"/>
@@ -31274,6 +33441,11 @@
         </is>
       </c>
       <c r="O524" t="inlineStr"/>
+      <c r="P524" t="inlineStr">
+        <is>
+          <t>VPS13A,TMEM163,FGF20,IGSF9B</t>
+        </is>
+      </c>
     </row>
     <row r="525">
       <c r="A525" t="inlineStr"/>
@@ -31333,6 +33505,11 @@
         </is>
       </c>
       <c r="O525" t="inlineStr"/>
+      <c r="P525" t="inlineStr">
+        <is>
+          <t>VPS13A,VPS13C</t>
+        </is>
+      </c>
     </row>
     <row r="526">
       <c r="A526" t="inlineStr"/>
@@ -31392,6 +33569,11 @@
         </is>
       </c>
       <c r="O526" t="inlineStr"/>
+      <c r="P526" t="inlineStr">
+        <is>
+          <t>VPS35</t>
+        </is>
+      </c>
     </row>
     <row r="527">
       <c r="A527" t="inlineStr"/>
@@ -31451,6 +33633,11 @@
         </is>
       </c>
       <c r="O527" t="inlineStr"/>
+      <c r="P527" t="inlineStr">
+        <is>
+          <t>VPS35,STK39,CLCN3</t>
+        </is>
+      </c>
     </row>
     <row r="528">
       <c r="A528" t="inlineStr"/>
@@ -31510,6 +33697,11 @@
         </is>
       </c>
       <c r="O528" t="inlineStr"/>
+      <c r="P528" t="inlineStr">
+        <is>
+          <t>WDR45</t>
+        </is>
+      </c>
     </row>
     <row r="529">
       <c r="A529" t="inlineStr"/>
@@ -31569,6 +33761,11 @@
         </is>
       </c>
       <c r="O529" t="inlineStr"/>
+      <c r="P529" t="inlineStr">
+        <is>
+          <t>WDR45</t>
+        </is>
+      </c>
     </row>
     <row r="530">
       <c r="A530" t="inlineStr"/>
@@ -31628,6 +33825,11 @@
         </is>
       </c>
       <c r="O530" t="inlineStr"/>
+      <c r="P530" t="inlineStr">
+        <is>
+          <t>WDR45</t>
+        </is>
+      </c>
     </row>
     <row r="531">
       <c r="A531" t="inlineStr"/>
@@ -31687,6 +33889,11 @@
         </is>
       </c>
       <c r="O531" t="inlineStr"/>
+      <c r="P531" t="inlineStr">
+        <is>
+          <t>WNT3</t>
+        </is>
+      </c>
     </row>
     <row r="532">
       <c r="A532" t="inlineStr"/>
@@ -31746,6 +33953,11 @@
         </is>
       </c>
       <c r="O532" t="inlineStr"/>
+      <c r="P532" t="inlineStr">
+        <is>
+          <t>WNT3</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
